--- a/BLACK_SUNRISE_HSV/135_Degree_GLCM/RGB_resmat.xlsx
+++ b/BLACK_SUNRISE_HSV/135_Degree_GLCM/RGB_resmat.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_HSV\135_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D042E104-7626-4406-B46E-60B8596F38CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,16 +51,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,30 +336,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L400"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="B308" sqref="B308"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.046875" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="15.7109375" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.0030679769031384209</v>
+        <v>3.0679769031384209E-3</v>
       </c>
       <c r="B1">
         <v>0.68495096468607519</v>
@@ -369,7 +368,7 @@
         <v>0.99846601154843084</v>
       </c>
       <c r="E1">
-        <v>0.057301540244078235</v>
+        <v>5.7301540244078235E-2</v>
       </c>
       <c r="F1">
         <v>0.46418386897275365</v>
@@ -393,9 +392,9 @@
         <v>0.91095600481229955</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.030362885510939283</v>
+        <v>3.0362885510939283E-2</v>
       </c>
       <c r="B2">
         <v>0.93287952895070048</v>
@@ -407,7 +406,7 @@
         <v>0.98481855724453027</v>
       </c>
       <c r="E2">
-        <v>0.0012336350057112733</v>
+        <v>1.2336350057112733E-3</v>
       </c>
       <c r="F2">
         <v>0.32826959402360101</v>
@@ -419,7 +418,7 @@
         <v>0.99938318249714431</v>
       </c>
       <c r="I2">
-        <v>0.039859414814163954</v>
+        <v>3.9859414814163954E-2</v>
       </c>
       <c r="J2">
         <v>0.9200317228309336</v>
@@ -431,9 +430,9 @@
         <v>0.98008435111150161</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.050350313438339567</v>
+        <v>5.0350313438339567E-2</v>
       </c>
       <c r="B3">
         <v>0.89265783998561421</v>
@@ -445,7 +444,7 @@
         <v>0.97482484328083019</v>
       </c>
       <c r="E3">
-        <v>0.029061089746966584</v>
+        <v>2.9061089746966584E-2</v>
       </c>
       <c r="F3">
         <v>0.45010799679142593</v>
@@ -457,7 +456,7 @@
         <v>0.98551159809654254</v>
       </c>
       <c r="I3">
-        <v>0.095889304465398867</v>
+        <v>9.5889304465398867E-2</v>
       </c>
       <c r="J3">
         <v>0.85534184273693448</v>
@@ -469,9 +468,9 @@
         <v>0.95472440253560198</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.048508200207663534</v>
+        <v>4.8508200207663534E-2</v>
       </c>
       <c r="B4">
         <v>0.89698081261120866</v>
@@ -483,7 +482,7 @@
         <v>0.97574589989616833</v>
       </c>
       <c r="E4">
-        <v>0.026893678772032976</v>
+        <v>2.6893678772032976E-2</v>
       </c>
       <c r="F4">
         <v>0.49141262874043912</v>
@@ -495,7 +494,7 @@
         <v>0.98658985617840711</v>
       </c>
       <c r="I4">
-        <v>0.085652451305402999</v>
+        <v>8.5652451305402999E-2</v>
       </c>
       <c r="J4">
         <v>0.85725582467341466</v>
@@ -507,9 +506,9 @@
         <v>0.95884342252857457</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.042557714382891881</v>
+        <v>4.2557714382891881E-2</v>
       </c>
       <c r="B5">
         <v>0.90782045390535704</v>
@@ -521,7 +520,7 @@
         <v>0.97872114280855405</v>
       </c>
       <c r="E5">
-        <v>0.028955351538174898</v>
+        <v>2.8955351538174898E-2</v>
       </c>
       <c r="F5">
         <v>0.50592235971090049</v>
@@ -533,7 +532,7 @@
         <v>0.98557234211230516</v>
       </c>
       <c r="I5">
-        <v>0.097935011766706603</v>
+        <v>9.7935011766706603E-2</v>
       </c>
       <c r="J5">
         <v>0.89611753698561902</v>
@@ -545,9 +544,9 @@
         <v>0.95296847789751493</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.052987145865855151</v>
+        <v>5.2987145865855151E-2</v>
       </c>
       <c r="B6">
         <v>0.88765598816626512</v>
@@ -559,7 +558,7 @@
         <v>0.97350642706707247</v>
       </c>
       <c r="E6">
-        <v>0.047010702614574393</v>
+        <v>4.7010702614574393E-2</v>
       </c>
       <c r="F6">
         <v>0.54452701311003282</v>
@@ -583,9 +582,9 @@
         <v>0.94698655778383922</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.031372867398893542</v>
+        <v>3.1372867398893542E-2</v>
       </c>
       <c r="B7">
         <v>0.913667487898143</v>
@@ -597,7 +596,7 @@
         <v>0.98431356630055322</v>
       </c>
       <c r="E7">
-        <v>0.01438164716252421</v>
+        <v>1.438164716252421E-2</v>
       </c>
       <c r="F7">
         <v>0.43967600430677334</v>
@@ -609,7 +608,7 @@
         <v>0.99284938317424598</v>
       </c>
       <c r="I7">
-        <v>0.077953166861901402</v>
+        <v>7.7953166861901402E-2</v>
       </c>
       <c r="J7">
         <v>0.89324090492151653</v>
@@ -621,9 +620,9 @@
         <v>0.96249579568782551</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.035136639470004477</v>
+        <v>3.5136639470004477E-2</v>
       </c>
       <c r="B8">
         <v>0.92820681140315686</v>
@@ -635,7 +634,7 @@
         <v>0.98243168026499772</v>
       </c>
       <c r="E8">
-        <v>0.0055633238755922396</v>
+        <v>5.5633238755922396E-3</v>
       </c>
       <c r="F8">
         <v>0.50691948081166593</v>
@@ -647,7 +646,7 @@
         <v>0.99721833806220395</v>
       </c>
       <c r="I8">
-        <v>0.050498907155754058</v>
+        <v>5.0498907155754058E-2</v>
       </c>
       <c r="J8">
         <v>0.91853813334374335</v>
@@ -659,9 +658,9 @@
         <v>0.97486639243742723</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.068361242196094518</v>
+        <v>6.8361242196094518E-2</v>
       </c>
       <c r="B9">
         <v>0.8523310702924245</v>
@@ -673,7 +672,7 @@
         <v>0.96581937890195269</v>
       </c>
       <c r="E9">
-        <v>0.086314727732717783</v>
+        <v>8.6314727732717783E-2</v>
       </c>
       <c r="F9">
         <v>0.48783402610073562</v>
@@ -697,9 +696,9 @@
         <v>0.93073503345091724</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.038589067569820876</v>
+        <v>3.8589067569820876E-2</v>
       </c>
       <c r="B10">
         <v>0.89154415749833615</v>
@@ -711,7 +710,7 @@
         <v>0.98070546621508969</v>
       </c>
       <c r="E10">
-        <v>0.05242613352139934</v>
+        <v>5.242613352139934E-2</v>
       </c>
       <c r="F10">
         <v>0.51903901144617404</v>
@@ -735,9 +734,9 @@
         <v>0.94251526441771061</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.056837281846848373</v>
+        <v>5.6837281846848373E-2</v>
       </c>
       <c r="B11">
         <v>0.88218580847104744</v>
@@ -749,7 +748,7 @@
         <v>0.97158135907657583</v>
       </c>
       <c r="E11">
-        <v>0.040479731071596373</v>
+        <v>4.0479731071596373E-2</v>
       </c>
       <c r="F11">
         <v>0.47576685323469625</v>
@@ -773,9 +772,9 @@
         <v>0.95231509961297944</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.056071181380765348</v>
+        <v>5.6071181380765348E-2</v>
       </c>
       <c r="B12">
         <v>0.87653275640186357</v>
@@ -787,7 +786,7 @@
         <v>0.97196440930961725</v>
       </c>
       <c r="E12">
-        <v>0.048090794619701629</v>
+        <v>4.8090794619701629E-2</v>
       </c>
       <c r="F12">
         <v>0.49682880940165125</v>
@@ -811,9 +810,9 @@
         <v>0.94497142052366834</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.037956316751659773</v>
+        <v>3.7956316751659773E-2</v>
       </c>
       <c r="B13">
         <v>0.92323824292758316</v>
@@ -825,7 +824,7 @@
         <v>0.98102184162417028</v>
       </c>
       <c r="E13">
-        <v>0.0057615702876936403</v>
+        <v>5.7615702876936403E-3</v>
       </c>
       <c r="F13">
         <v>0.42599315661424292</v>
@@ -837,7 +836,7 @@
         <v>0.99712434651528281</v>
       </c>
       <c r="I13">
-        <v>0.051145963629365923</v>
+        <v>5.1145963629365923E-2</v>
       </c>
       <c r="J13">
         <v>0.89902713995834316</v>
@@ -849,9 +848,9 @@
         <v>0.97464767952788733</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.0439100035367413</v>
+        <v>4.39100035367413E-2</v>
       </c>
       <c r="B14">
         <v>0.90954237672527494</v>
@@ -863,7 +862,7 @@
         <v>0.97804499823162949</v>
       </c>
       <c r="E14">
-        <v>0.0149752276966141</v>
+        <v>1.49752276966141E-2</v>
       </c>
       <c r="F14">
         <v>0.47745527599207327</v>
@@ -875,7 +874,7 @@
         <v>0.99253253852377832</v>
       </c>
       <c r="I14">
-        <v>0.072439716697953224</v>
+        <v>7.2439716697953224E-2</v>
       </c>
       <c r="J14">
         <v>0.88772961843551068</v>
@@ -887,9 +886,9 @@
         <v>0.96454996226468326</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.052321171666023361</v>
+        <v>5.2321171666023361E-2</v>
       </c>
       <c r="B15">
         <v>0.89154564944375692</v>
@@ -901,7 +900,7 @@
         <v>0.97383941416698838</v>
       </c>
       <c r="E15">
-        <v>0.026902864114489</v>
+        <v>2.6902864114489E-2</v>
       </c>
       <c r="F15">
         <v>0.47731259977666979</v>
@@ -913,7 +912,7 @@
         <v>0.98660974966777426</v>
       </c>
       <c r="I15">
-        <v>0.089302825246098991</v>
+        <v>8.9302825246098991E-2</v>
       </c>
       <c r="J15">
         <v>0.85111709113939704</v>
@@ -925,9 +924,9 @@
         <v>0.95739817516507819</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.032478576077795009</v>
+        <v>3.2478576077795009E-2</v>
       </c>
       <c r="B16">
         <v>0.91654932891583174</v>
@@ -939,7 +938,7 @@
         <v>0.9837607119611026</v>
       </c>
       <c r="E16">
-        <v>0.0096193935612752662</v>
+        <v>9.6193935612752662E-3</v>
       </c>
       <c r="F16">
         <v>0.33251922174307313</v>
@@ -951,7 +950,7 @@
         <v>0.99523429587258927</v>
       </c>
       <c r="I16">
-        <v>0.067848669272231543</v>
+        <v>6.7848669272231543E-2</v>
       </c>
       <c r="J16">
         <v>0.8732174491916741</v>
@@ -963,9 +962,9 @@
         <v>0.967212125575029</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.036577348022000931</v>
+        <v>3.6577348022000931E-2</v>
       </c>
       <c r="B17">
         <v>0.92383925946413803</v>
@@ -977,7 +976,7 @@
         <v>0.98171132598899946</v>
       </c>
       <c r="E17">
-        <v>0.0035823671846185916</v>
+        <v>3.5823671846185916E-3</v>
       </c>
       <c r="F17">
         <v>0.40500806894445396</v>
@@ -989,7 +988,7 @@
         <v>0.99820881640769077</v>
       </c>
       <c r="I17">
-        <v>0.042651657285803626</v>
+        <v>4.2651657285803626E-2</v>
       </c>
       <c r="J17">
         <v>0.89006243996883849</v>
@@ -1001,9 +1000,9 @@
         <v>0.97881100901738793</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.039647724528996509</v>
+        <v>3.9647724528996509E-2</v>
       </c>
       <c r="B18">
         <v>0.91006627454467237</v>
@@ -1015,7 +1014,7 @@
         <v>0.98017613773550161</v>
       </c>
       <c r="E18">
-        <v>0.026908338094566456</v>
+        <v>2.6908338094566456E-2</v>
       </c>
       <c r="F18">
         <v>0.5687509119973555</v>
@@ -1027,7 +1026,7 @@
         <v>0.98656814300752149</v>
       </c>
       <c r="I18">
-        <v>0.050008486549416822</v>
+        <v>5.0008486549416822E-2</v>
       </c>
       <c r="J18">
         <v>0.87765654879815969</v>
@@ -1039,9 +1038,9 @@
         <v>0.975412713249456</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.047920939259218476</v>
+        <v>4.7920939259218476E-2</v>
       </c>
       <c r="B19">
         <v>0.88550382559234952</v>
@@ -1053,7 +1052,7 @@
         <v>0.97603953037039082</v>
       </c>
       <c r="E19">
-        <v>0.034949692373336269</v>
+        <v>3.4949692373336269E-2</v>
       </c>
       <c r="F19">
         <v>0.40295217293093893</v>
@@ -1065,7 +1064,7 @@
         <v>0.98277474203864035</v>
       </c>
       <c r="I19">
-        <v>0.099230589239260591</v>
+        <v>9.9230589239260591E-2</v>
       </c>
       <c r="J19">
         <v>0.80608627980409886</v>
@@ -1077,9 +1076,9 @@
         <v>0.95521437518065322</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.025564956231915906</v>
+        <v>2.5564956231915906E-2</v>
       </c>
       <c r="B20">
         <v>0.92117266986183377</v>
@@ -1091,7 +1090,7 @@
         <v>0.9872175218840421</v>
       </c>
       <c r="E20">
-        <v>0.002813543633233777</v>
+        <v>2.813543633233777E-3</v>
       </c>
       <c r="F20">
         <v>0.33792044082906386</v>
@@ -1103,7 +1102,7 @@
         <v>0.99859322818338314</v>
       </c>
       <c r="I20">
-        <v>0.046235345433235778</v>
+        <v>4.6235345433235778E-2</v>
       </c>
       <c r="J20">
         <v>0.91396124552999169</v>
@@ -1115,9 +1114,9 @@
         <v>0.97694892003209777</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.059154064552277001</v>
+        <v>5.9154064552277001E-2</v>
       </c>
       <c r="B21">
         <v>0.85886932510854741</v>
@@ -1141,7 +1140,7 @@
         <v>0.89894244600440687</v>
       </c>
       <c r="I21">
-        <v>0.098320735708474979</v>
+        <v>9.8320735708474979E-2</v>
       </c>
       <c r="J21">
         <v>0.69533071414377501</v>
@@ -1153,9 +1152,9 @@
         <v>0.95864109070469472</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.0075244425198539603</v>
+        <v>7.5244425198539603E-3</v>
       </c>
       <c r="B22">
         <v>0.56789169829728114</v>
@@ -1191,9 +1190,9 @@
         <v>0.9333407491865735</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.036726948695100292</v>
+        <v>3.6726948695100292E-2</v>
       </c>
       <c r="B23">
         <v>0.80124867226765017</v>
@@ -1217,7 +1216,7 @@
         <v>0.91979990042032878</v>
       </c>
       <c r="I23">
-        <v>0.08393540570168409</v>
+        <v>8.393540570168409E-2</v>
       </c>
       <c r="J23">
         <v>0.73685746527875118</v>
@@ -1229,10 +1228,13 @@
         <v>0.96345255114142669</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>1</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>0.94679558872910241</v>
       </c>
       <c r="I24">
-        <v>0.099986515534897014</v>
+        <v>9.9986515534897014E-2</v>
       </c>
       <c r="J24">
         <v>0.85615819325361653</v>
@@ -1264,9 +1266,9 @@
         <v>0.9522516412709241</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.040987696080503996</v>
+        <v>4.0987696080503996E-2</v>
       </c>
       <c r="B25">
         <v>0.86836347020667193</v>
@@ -1278,7 +1280,7 @@
         <v>0.97950615195974799</v>
       </c>
       <c r="E25">
-        <v>0.067193776161684496</v>
+        <v>6.7193776161684496E-2</v>
       </c>
       <c r="F25">
         <v>0.61033617108644733</v>
@@ -1290,7 +1292,7 @@
         <v>0.96640311191915784</v>
       </c>
       <c r="I25">
-        <v>0.016565895733795612</v>
+        <v>1.6565895733795612E-2</v>
       </c>
       <c r="J25">
         <v>0.7699561214408126</v>
@@ -1302,9 +1304,9 @@
         <v>0.99180725268839931</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.049538145740677386</v>
+        <v>4.9538145740677386E-2</v>
       </c>
       <c r="B26">
         <v>0.84009152585224534</v>
@@ -1328,7 +1330,7 @@
         <v>0.89868545185000892</v>
       </c>
       <c r="I26">
-        <v>0.084651509967965666</v>
+        <v>8.4651509967965666E-2</v>
       </c>
       <c r="J26">
         <v>0.70766022454532618</v>
@@ -1340,9 +1342,9 @@
         <v>0.96411376854414832</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.032440382528050558</v>
+        <v>3.2440382528050558E-2</v>
       </c>
       <c r="B27">
         <v>0.84006646157269838</v>
@@ -1366,7 +1368,7 @@
         <v>0.93600126738642231</v>
       </c>
       <c r="I27">
-        <v>0.065041329214327467</v>
+        <v>6.5041329214327467E-2</v>
       </c>
       <c r="J27">
         <v>0.81000430450819627</v>
@@ -1378,9 +1380,9 @@
         <v>0.96854976311434515</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.0011175100390128185</v>
+        <v>1.1175100390128185E-3</v>
       </c>
       <c r="B28">
         <v>0.95936563722698476</v>
@@ -1392,7 +1394,7 @@
         <v>0.99991390028152116</v>
       </c>
       <c r="E28">
-        <v>0.024402303614044614</v>
+        <v>2.4402303614044614E-2</v>
       </c>
       <c r="F28">
         <v>0.64856144473990451</v>
@@ -1404,7 +1406,7 @@
         <v>0.9877988481929777</v>
       </c>
       <c r="I28">
-        <v>0.044891893050573756</v>
+        <v>4.4891893050573756E-2</v>
       </c>
       <c r="J28">
         <v>0.85882948214327581</v>
@@ -1416,9 +1418,9 @@
         <v>0.97768743063196961</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.0046810059182930798</v>
+        <v>4.6810059182930798E-3</v>
       </c>
       <c r="B29">
         <v>0.60192018326296937</v>
@@ -1454,9 +1456,9 @@
         <v>0.93963819884698629</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.042242458200021996</v>
+        <v>4.2242458200021996E-2</v>
       </c>
       <c r="B30">
         <v>0.78028690050362048</v>
@@ -1492,9 +1494,9 @@
         <v>0.93456285226048896</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.037818001141905762</v>
+        <v>3.7818001141905762E-2</v>
       </c>
       <c r="B31">
         <v>0.84139359198722619</v>
@@ -1518,7 +1520,7 @@
         <v>0.93275250136927002</v>
       </c>
       <c r="I31">
-        <v>0.08104044176934376</v>
+        <v>8.104044176934376E-2</v>
       </c>
       <c r="J31">
         <v>0.78638919272045904</v>
@@ -1530,9 +1532,9 @@
         <v>0.96386216935944313</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.0040354449005160853</v>
+        <v>4.0354449005160853E-3</v>
       </c>
       <c r="B32">
         <v>0.52768495864096487</v>
@@ -1568,9 +1570,9 @@
         <v>0.9351023611723186</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.030730265934993669</v>
+        <v>3.0730265934993669E-2</v>
       </c>
       <c r="B33">
         <v>0.76799006218993138</v>
@@ -1594,7 +1596,7 @@
         <v>0.91787488984174237</v>
       </c>
       <c r="I33">
-        <v>0.091750905334251634</v>
+        <v>9.1750905334251634E-2</v>
       </c>
       <c r="J33">
         <v>0.72230884422570485</v>
@@ -1606,9 +1608,9 @@
         <v>0.95981056482489469</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.041535962070973875</v>
+        <v>4.1535962070973875E-2</v>
       </c>
       <c r="B34">
         <v>0.90665399200063024</v>
@@ -1620,7 +1622,7 @@
         <v>0.97923201896451317</v>
       </c>
       <c r="E34">
-        <v>0.045459654428969931</v>
+        <v>4.5459654428969931E-2</v>
       </c>
       <c r="F34">
         <v>0.71521687822903002</v>
@@ -1632,7 +1634,7 @@
         <v>0.97727017278551509</v>
       </c>
       <c r="I34">
-        <v>0.0098194488438390869</v>
+        <v>9.8194488438390869E-3</v>
       </c>
       <c r="J34">
         <v>0.80513568129538282</v>
@@ -1644,9 +1646,9 @@
         <v>0.9950902755780805</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.058091578422457546</v>
+        <v>5.8091578422457546E-2</v>
       </c>
       <c r="B35">
         <v>0.87038806032006377</v>
@@ -1670,7 +1672,7 @@
         <v>0.93493004018655945</v>
       </c>
       <c r="I35">
-        <v>0.048599337068434487</v>
+        <v>4.8599337068434487E-2</v>
       </c>
       <c r="J35">
         <v>0.74210143684786745</v>
@@ -1682,9 +1684,9 @@
         <v>0.9778719701191908</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.035048943870362906</v>
+        <v>3.5048943870362906E-2</v>
       </c>
       <c r="B36">
         <v>0.82615363902963923</v>
@@ -1696,7 +1698,7 @@
         <v>0.98247552806481853</v>
       </c>
       <c r="E36">
-        <v>0.095227121555728975</v>
+        <v>9.5227121555728975E-2</v>
       </c>
       <c r="F36">
         <v>0.57352156100070883</v>
@@ -1708,7 +1710,7 @@
         <v>0.95241437223179504</v>
       </c>
       <c r="I36">
-        <v>0.04077346503747388</v>
+        <v>4.077346503747388E-2</v>
       </c>
       <c r="J36">
         <v>0.81468421367449839</v>
@@ -1720,9 +1722,9 @@
         <v>0.98020553457670145</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.023686416676107398</v>
+        <v>2.3686416676107398E-2</v>
       </c>
       <c r="B37">
         <v>0.80400363503502525</v>
@@ -1734,7 +1736,7 @@
         <v>0.98815679166194625</v>
       </c>
       <c r="E37">
-        <v>0.086960462218194173</v>
+        <v>8.6960462218194173E-2</v>
       </c>
       <c r="F37">
         <v>0.52734607420740953</v>
@@ -1746,7 +1748,7 @@
         <v>0.95658018956988022</v>
       </c>
       <c r="I37">
-        <v>0.054333295570408974</v>
+        <v>5.4333295570408974E-2</v>
       </c>
       <c r="J37">
         <v>0.81535428082457573</v>
@@ -1758,9 +1760,9 @@
         <v>0.97424379743967382</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.026893575150390231</v>
+        <v>2.6893575150390231E-2</v>
       </c>
       <c r="B38">
         <v>0.82222692944207598</v>
@@ -1796,9 +1798,9 @@
         <v>0.94978561471774348</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.053811095603167144</v>
+        <v>5.3811095603167144E-2</v>
       </c>
       <c r="B39">
         <v>0.80041842203059521</v>
@@ -1834,9 +1836,9 @@
         <v>0.95123100736223098</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.05774387560510489</v>
+        <v>5.774387560510489E-2</v>
       </c>
       <c r="B40">
         <v>0.82896123994503279</v>
@@ -1872,10 +1874,13 @@
         <v>0.93679135494596844</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>1</v>
       </c>
@@ -1907,9 +1912,9 @@
         <v>0.90752070047617672</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.063787706131216676</v>
+        <v>6.3787706131216676E-2</v>
       </c>
       <c r="B42">
         <v>0.66768581992464948</v>
@@ -1945,10 +1950,13 @@
         <v>0.91296056164616823</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>1</v>
       </c>
@@ -1980,9 +1988,9 @@
         <v>0.88629523303207502</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.022080486374504202</v>
+        <v>2.2080486374504202E-2</v>
       </c>
       <c r="B44">
         <v>0.63213184225674413</v>
@@ -2018,9 +2026,9 @@
         <v>0.94271045517796592</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.022692470412927331</v>
+        <v>2.2692470412927331E-2</v>
       </c>
       <c r="B45">
         <v>0.66932224365104065</v>
@@ -2056,9 +2064,9 @@
         <v>0.93656978405773772</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.033200977524406997</v>
+        <v>3.3200977524406997E-2</v>
       </c>
       <c r="B46">
         <v>0.70727535091185323</v>
@@ -2082,7 +2090,7 @@
         <v>0.93595299639997731</v>
       </c>
       <c r="I46">
-        <v>0.099818684989025672</v>
+        <v>9.9818684989025672E-2</v>
       </c>
       <c r="J46">
         <v>0.866460612194762</v>
@@ -2094,9 +2102,9 @@
         <v>0.95211471943196258</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.039060914191608738</v>
+        <v>3.9060914191608738E-2</v>
       </c>
       <c r="B47">
         <v>0.67771973685794751</v>
@@ -2132,9 +2140,9 @@
         <v>0.93599375730070278</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.018853931282229563</v>
+        <v>1.8853931282229563E-2</v>
       </c>
       <c r="B48">
         <v>0.72562941379171653</v>
@@ -2170,9 +2178,9 @@
         <v>0.94140165195614522</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.016673845857885471</v>
+        <v>1.6673845857885471E-2</v>
       </c>
       <c r="B49">
         <v>0.61951559506806164</v>
@@ -2208,9 +2216,9 @@
         <v>0.9337497961249096</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.014552769026221652</v>
+        <v>1.4552769026221652E-2</v>
       </c>
       <c r="B50">
         <v>0.61073583501835849</v>
@@ -2246,9 +2254,9 @@
         <v>0.94453153671399492</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.015951703720903234</v>
+        <v>1.5951703720903234E-2</v>
       </c>
       <c r="B51">
         <v>0.6584973770699738</v>
@@ -2284,9 +2292,9 @@
         <v>0.95080958185793618</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.024389145197436832</v>
+        <v>2.4389145197436832E-2</v>
       </c>
       <c r="B52">
         <v>0.66986518470184653</v>
@@ -2322,9 +2330,9 @@
         <v>0.9479454231718778</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.026092272423345116</v>
+        <v>2.6092272423345116E-2</v>
       </c>
       <c r="B53">
         <v>0.65952437708227751</v>
@@ -2360,10 +2368,13 @@
         <v>0.94811570668959155</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>1</v>
       </c>
@@ -2395,10 +2406,13 @@
         <v>0.91440266163862327</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55">
         <v>1</v>
       </c>
@@ -2430,10 +2444,13 @@
         <v>0.92846283009833419</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>1</v>
       </c>
@@ -2465,9 +2482,9 @@
         <v>0.91627760411105341</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.021633510924287599</v>
+        <v>2.1633510924287599E-2</v>
       </c>
       <c r="B57">
         <v>0.71238249268306175</v>
@@ -2479,7 +2496,7 @@
         <v>0.98918324453785633</v>
       </c>
       <c r="E57">
-        <v>0.096576893624647678</v>
+        <v>9.6576893624647678E-2</v>
       </c>
       <c r="F57">
         <v>0.57312428771533264</v>
@@ -2491,7 +2508,7 @@
         <v>0.95185492937093696</v>
       </c>
       <c r="I57">
-        <v>0.085657493849487593</v>
+        <v>8.5657493849487593E-2</v>
       </c>
       <c r="J57">
         <v>0.86753672423555905</v>
@@ -2503,9 +2520,9 @@
         <v>0.95878287740793233</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.03049349966796993</v>
+        <v>3.049349966796993E-2</v>
       </c>
       <c r="B58">
         <v>0.69548663913110698</v>
@@ -2541,9 +2558,9 @@
         <v>0.95160362830150935</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.03126503612033607</v>
+        <v>3.126503612033607E-2</v>
       </c>
       <c r="B59">
         <v>0.71402428520654493</v>
@@ -2567,7 +2584,7 @@
         <v>0.94567425188116228</v>
       </c>
       <c r="I59">
-        <v>0.092388652797265144</v>
+        <v>9.2388652797265144E-2</v>
       </c>
       <c r="J59">
         <v>0.8548751582857832</v>
@@ -2579,9 +2596,9 @@
         <v>0.95498837487087862</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.027862175743396691</v>
+        <v>2.7862175743396691E-2</v>
       </c>
       <c r="B60">
         <v>0.66555127177234052</v>
@@ -2617,9 +2634,9 @@
         <v>0.94625278741646324</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.03732324513852045</v>
+        <v>3.732324513852045E-2</v>
       </c>
       <c r="B61">
         <v>0.88351491279452066</v>
@@ -2631,7 +2648,7 @@
         <v>0.98133837743073971</v>
       </c>
       <c r="E61">
-        <v>0.0078462516929911005</v>
+        <v>7.8462516929911005E-3</v>
       </c>
       <c r="F61">
         <v>0.51475934299548953</v>
@@ -2655,9 +2672,9 @@
         <v>0.9314675006123877</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.024875593773048002</v>
+        <v>2.4875593773048002E-2</v>
       </c>
       <c r="B62">
         <v>0.90721236565444618</v>
@@ -2669,7 +2686,7 @@
         <v>0.98756220311347598</v>
       </c>
       <c r="E62">
-        <v>0.0066971665616407782</v>
+        <v>6.6971665616407782E-3</v>
       </c>
       <c r="F62">
         <v>0.63993227484282611</v>
@@ -2693,9 +2710,9 @@
         <v>0.948447359423083</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.025853323574874042</v>
+        <v>2.5853323574874042E-2</v>
       </c>
       <c r="B63">
         <v>0.90558695897010522</v>
@@ -2707,7 +2724,7 @@
         <v>0.98707333821256305</v>
       </c>
       <c r="E63">
-        <v>0.019840002712776326</v>
+        <v>1.9840002712776326E-2</v>
       </c>
       <c r="F63">
         <v>0.73626358130955283</v>
@@ -2731,9 +2748,9 @@
         <v>0.93886692607590316</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.05168182063803102</v>
+        <v>5.168182063803102E-2</v>
       </c>
       <c r="B64">
         <v>0.85762022258309689</v>
@@ -2745,7 +2762,7 @@
         <v>0.97415908968098441</v>
       </c>
       <c r="E64">
-        <v>0.045689436966210015</v>
+        <v>4.5689436966210015E-2</v>
       </c>
       <c r="F64">
         <v>0.49771683675986972</v>
@@ -2769,9 +2786,9 @@
         <v>0.88816326472570695</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.041041220427308858</v>
+        <v>4.1041220427308858E-2</v>
       </c>
       <c r="B65">
         <v>0.86645423992623261</v>
@@ -2783,7 +2800,7 @@
         <v>0.97947938978634552</v>
       </c>
       <c r="E65">
-        <v>0.017243684379702404</v>
+        <v>1.7243684379702404E-2</v>
       </c>
       <c r="F65">
         <v>0.5060693976578885</v>
@@ -2807,9 +2824,9 @@
         <v>0.92348672114935149</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.037850864370240635</v>
+        <v>3.7850864370240635E-2</v>
       </c>
       <c r="B66">
         <v>0.88181326328914644</v>
@@ -2821,7 +2838,7 @@
         <v>0.98107456781487978</v>
       </c>
       <c r="E66">
-        <v>0.015626152698578373</v>
+        <v>1.5626152698578373E-2</v>
       </c>
       <c r="F66">
         <v>0.55395476924606324</v>
@@ -2845,9 +2862,9 @@
         <v>0.93536053451515389</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.044938531472044976</v>
+        <v>4.4938531472044976E-2</v>
       </c>
       <c r="B67">
         <v>0.87283000465464788</v>
@@ -2859,7 +2876,7 @@
         <v>0.97753073426397752</v>
       </c>
       <c r="E67">
-        <v>0.022310603155798719</v>
+        <v>2.2310603155798719E-2</v>
       </c>
       <c r="F67">
         <v>0.55005213321217405</v>
@@ -2883,9 +2900,9 @@
         <v>0.92168459113093804</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.034697462713888003</v>
+        <v>3.4697462713888003E-2</v>
       </c>
       <c r="B68">
         <v>0.89586234149080213</v>
@@ -2897,7 +2914,7 @@
         <v>0.98265126864305608</v>
       </c>
       <c r="E68">
-        <v>0.0068903150365689399</v>
+        <v>6.8903150365689399E-3</v>
       </c>
       <c r="F68">
         <v>0.57813028415169077</v>
@@ -2921,9 +2938,9 @@
         <v>0.94792602974510565</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.033868675151534952</v>
+        <v>3.3868675151534952E-2</v>
       </c>
       <c r="B69">
         <v>0.90084234371120608</v>
@@ -2935,7 +2952,7 @@
         <v>0.98306566242423254</v>
       </c>
       <c r="E69">
-        <v>0.0069109742349731237</v>
+        <v>6.9109742349731237E-3</v>
       </c>
       <c r="F69">
         <v>0.63316374639992024</v>
@@ -2947,7 +2964,7 @@
         <v>0.99654762488261928</v>
       </c>
       <c r="I69">
-        <v>0.092048295129642049</v>
+        <v>9.2048295129642049E-2</v>
       </c>
       <c r="J69">
         <v>0.84533636920490152</v>
@@ -2959,9 +2976,9 @@
         <v>0.95401942043666021</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.039045677766874946</v>
+        <v>3.9045677766874946E-2</v>
       </c>
       <c r="B70">
         <v>0.87661541283138755</v>
@@ -2973,7 +2990,7 @@
         <v>0.98047716111656258</v>
       </c>
       <c r="E70">
-        <v>0.0053704754835611056</v>
+        <v>5.3704754835611056E-3</v>
       </c>
       <c r="F70">
         <v>0.3759343118761263</v>
@@ -2997,9 +3014,9 @@
         <v>0.94171222493644058</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.050124412864423248</v>
+        <v>5.0124412864423248E-2</v>
       </c>
       <c r="B71">
         <v>0.86937170970851863</v>
@@ -3011,7 +3028,7 @@
         <v>0.97493779356778831</v>
       </c>
       <c r="E71">
-        <v>0.030923582558247842</v>
+        <v>3.0923582558247842E-2</v>
       </c>
       <c r="F71">
         <v>0.52611390321265405</v>
@@ -3035,9 +3052,9 @@
         <v>0.91158126311214016</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.045134323159315537</v>
+        <v>4.5134323159315537E-2</v>
       </c>
       <c r="B72">
         <v>0.86903897954256937</v>
@@ -3049,7 +3066,7 @@
         <v>0.97743283842034234</v>
       </c>
       <c r="E72">
-        <v>0.029674460457758234</v>
+        <v>2.9674460457758234E-2</v>
       </c>
       <c r="F72">
         <v>0.55373389780389481</v>
@@ -3073,9 +3090,9 @@
         <v>0.91942763288389617</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0.049968426543667462</v>
+        <v>4.9968426543667462E-2</v>
       </c>
       <c r="B73">
         <v>0.8670004182519444</v>
@@ -3087,7 +3104,7 @@
         <v>0.97501578672816624</v>
       </c>
       <c r="E73">
-        <v>0.029164888319817898</v>
+        <v>2.9164888319817898E-2</v>
       </c>
       <c r="F73">
         <v>0.54454358693805882</v>
@@ -3111,9 +3128,9 @@
         <v>0.90822586294540808</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0.038978389164682159</v>
+        <v>3.8978389164682159E-2</v>
       </c>
       <c r="B74">
         <v>0.88609826420979065</v>
@@ -3125,7 +3142,7 @@
         <v>0.980510805417659</v>
       </c>
       <c r="E74">
-        <v>0.0094747534295087261</v>
+        <v>9.4747534295087261E-3</v>
       </c>
       <c r="F74">
         <v>0.53616140531310197</v>
@@ -3149,9 +3166,9 @@
         <v>0.93944152393393132</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0.040618035652400478</v>
+        <v>4.0618035652400478E-2</v>
       </c>
       <c r="B75">
         <v>0.86777869639715588</v>
@@ -3163,7 +3180,7 @@
         <v>0.97969098217379968</v>
       </c>
       <c r="E75">
-        <v>0.017714897158482939</v>
+        <v>1.7714897158482939E-2</v>
       </c>
       <c r="F75">
         <v>0.52628660117417825</v>
@@ -3187,9 +3204,9 @@
         <v>0.91870237471868577</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0.047678260969684409</v>
+        <v>4.7678260969684409E-2</v>
       </c>
       <c r="B76">
         <v>0.876935843628464</v>
@@ -3201,7 +3218,7 @@
         <v>0.97616086951515779</v>
       </c>
       <c r="E76">
-        <v>0.024049831324191452</v>
+        <v>2.4049831324191452E-2</v>
       </c>
       <c r="F76">
         <v>0.58054237409239007</v>
@@ -3225,9 +3242,9 @@
         <v>0.92075652731243218</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0.044019500465652173</v>
+        <v>4.4019500465652173E-2</v>
       </c>
       <c r="B77">
         <v>0.87742151339523411</v>
@@ -3239,7 +3256,7 @@
         <v>0.97799024976717386</v>
       </c>
       <c r="E77">
-        <v>0.027292454613144369</v>
+        <v>2.7292454613144369E-2</v>
       </c>
       <c r="F77">
         <v>0.58539931689039937</v>
@@ -3263,9 +3280,9 @@
         <v>0.92188371674685599</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0.029237317860787822</v>
+        <v>2.9237317860787822E-2</v>
       </c>
       <c r="B78">
         <v>0.90360027922568842</v>
@@ -3277,7 +3294,7 @@
         <v>0.98538134106960618</v>
       </c>
       <c r="E78">
-        <v>0.0029984091459399282</v>
+        <v>2.9984091459399282E-3</v>
       </c>
       <c r="F78">
         <v>0.5706952552234914</v>
@@ -3289,7 +3306,7 @@
         <v>0.99850079542702996</v>
       </c>
       <c r="I78">
-        <v>0.085808812381053673</v>
+        <v>8.5808812381053673E-2</v>
       </c>
       <c r="J78">
         <v>0.8517618226051521</v>
@@ -3301,9 +3318,9 @@
         <v>0.95709559380947318</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0.038364552853021219</v>
+        <v>3.8364552853021219E-2</v>
       </c>
       <c r="B79">
         <v>0.87091258308427011</v>
@@ -3315,7 +3332,7 @@
         <v>0.9808177235734894</v>
       </c>
       <c r="E79">
-        <v>0.0083661656695364559</v>
+        <v>8.3661656695364559E-3</v>
       </c>
       <c r="F79">
         <v>0.55457567561030385</v>
@@ -3339,9 +3356,9 @@
         <v>0.92696799881897463</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0.028292358661505965</v>
+        <v>2.8292358661505965E-2</v>
       </c>
       <c r="B80">
         <v>0.90624721293060273</v>
@@ -3353,7 +3370,7 @@
         <v>0.98585382066924709</v>
       </c>
       <c r="E80">
-        <v>0.0013573641831691129</v>
+        <v>1.3573641831691129E-3</v>
       </c>
       <c r="F80">
         <v>0.62202955036499252</v>
@@ -3365,7 +3382,7 @@
         <v>0.9993213179084155</v>
       </c>
       <c r="I80">
-        <v>0.075673589295478683</v>
+        <v>7.5673589295478683E-2</v>
       </c>
       <c r="J80">
         <v>0.85097471759197674</v>
@@ -3377,9 +3394,9 @@
         <v>0.96217178269307069</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0.03732324513852045</v>
+        <v>3.732324513852045E-2</v>
       </c>
       <c r="B81">
         <v>0.88351491279452066</v>
@@ -3391,7 +3408,7 @@
         <v>0.98133837743073971</v>
       </c>
       <c r="E81">
-        <v>0.0078462516929911005</v>
+        <v>7.8462516929911005E-3</v>
       </c>
       <c r="F81">
         <v>0.51475934299548953</v>
@@ -3415,9 +3432,9 @@
         <v>0.9314675006123877</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0.024875593773048002</v>
+        <v>2.4875593773048002E-2</v>
       </c>
       <c r="B82">
         <v>0.90721236565444618</v>
@@ -3429,7 +3446,7 @@
         <v>0.98756220311347598</v>
       </c>
       <c r="E82">
-        <v>0.0066971665616407782</v>
+        <v>6.6971665616407782E-3</v>
       </c>
       <c r="F82">
         <v>0.63993227484282611</v>
@@ -3453,9 +3470,9 @@
         <v>0.948447359423083</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0.025853323574874042</v>
+        <v>2.5853323574874042E-2</v>
       </c>
       <c r="B83">
         <v>0.90558695897010522</v>
@@ -3467,7 +3484,7 @@
         <v>0.98707333821256305</v>
       </c>
       <c r="E83">
-        <v>0.019840002712776326</v>
+        <v>1.9840002712776326E-2</v>
       </c>
       <c r="F83">
         <v>0.73626358130955283</v>
@@ -3491,9 +3508,9 @@
         <v>0.93886692607590316</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>0.05168182063803102</v>
+        <v>5.168182063803102E-2</v>
       </c>
       <c r="B84">
         <v>0.85762022258309689</v>
@@ -3505,7 +3522,7 @@
         <v>0.97415908968098441</v>
       </c>
       <c r="E84">
-        <v>0.045689436966210015</v>
+        <v>4.5689436966210015E-2</v>
       </c>
       <c r="F84">
         <v>0.49771683675986972</v>
@@ -3529,9 +3546,9 @@
         <v>0.88816326472570695</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>0.041041220427308858</v>
+        <v>4.1041220427308858E-2</v>
       </c>
       <c r="B85">
         <v>0.86645423992623261</v>
@@ -3543,7 +3560,7 @@
         <v>0.97947938978634552</v>
       </c>
       <c r="E85">
-        <v>0.017243684379702404</v>
+        <v>1.7243684379702404E-2</v>
       </c>
       <c r="F85">
         <v>0.5060693976578885</v>
@@ -3567,9 +3584,9 @@
         <v>0.92348672114935149</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0.037850864370240635</v>
+        <v>3.7850864370240635E-2</v>
       </c>
       <c r="B86">
         <v>0.88181326328914644</v>
@@ -3581,7 +3598,7 @@
         <v>0.98107456781487978</v>
       </c>
       <c r="E86">
-        <v>0.015626152698578373</v>
+        <v>1.5626152698578373E-2</v>
       </c>
       <c r="F86">
         <v>0.55395476924606324</v>
@@ -3605,9 +3622,9 @@
         <v>0.93536053451515389</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>0.044938531472044976</v>
+        <v>4.4938531472044976E-2</v>
       </c>
       <c r="B87">
         <v>0.87283000465464788</v>
@@ -3619,7 +3636,7 @@
         <v>0.97753073426397752</v>
       </c>
       <c r="E87">
-        <v>0.022310603155798719</v>
+        <v>2.2310603155798719E-2</v>
       </c>
       <c r="F87">
         <v>0.55005213321217405</v>
@@ -3643,9 +3660,9 @@
         <v>0.92168459113093804</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0.034697462713888003</v>
+        <v>3.4697462713888003E-2</v>
       </c>
       <c r="B88">
         <v>0.89586234149080213</v>
@@ -3657,7 +3674,7 @@
         <v>0.98265126864305608</v>
       </c>
       <c r="E88">
-        <v>0.0068903150365689399</v>
+        <v>6.8903150365689399E-3</v>
       </c>
       <c r="F88">
         <v>0.57813028415169077</v>
@@ -3681,9 +3698,9 @@
         <v>0.94792602974510565</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>0.033868675151534952</v>
+        <v>3.3868675151534952E-2</v>
       </c>
       <c r="B89">
         <v>0.90084234371120608</v>
@@ -3695,7 +3712,7 @@
         <v>0.98306566242423254</v>
       </c>
       <c r="E89">
-        <v>0.0069109742349731237</v>
+        <v>6.9109742349731237E-3</v>
       </c>
       <c r="F89">
         <v>0.63316374639992024</v>
@@ -3707,7 +3724,7 @@
         <v>0.99654762488261928</v>
       </c>
       <c r="I89">
-        <v>0.092048295129642049</v>
+        <v>9.2048295129642049E-2</v>
       </c>
       <c r="J89">
         <v>0.84533636920490152</v>
@@ -3719,9 +3736,9 @@
         <v>0.95401942043666021</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>0.039045677766874946</v>
+        <v>3.9045677766874946E-2</v>
       </c>
       <c r="B90">
         <v>0.87661541283138755</v>
@@ -3733,7 +3750,7 @@
         <v>0.98047716111656258</v>
       </c>
       <c r="E90">
-        <v>0.0053704754835611056</v>
+        <v>5.3704754835611056E-3</v>
       </c>
       <c r="F90">
         <v>0.3759343118761263</v>
@@ -3757,9 +3774,9 @@
         <v>0.94171222493644058</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>0.050124412864423248</v>
+        <v>5.0124412864423248E-2</v>
       </c>
       <c r="B91">
         <v>0.86937170970851863</v>
@@ -3771,7 +3788,7 @@
         <v>0.97493779356778831</v>
       </c>
       <c r="E91">
-        <v>0.030923582558247842</v>
+        <v>3.0923582558247842E-2</v>
       </c>
       <c r="F91">
         <v>0.52611390321265405</v>
@@ -3795,9 +3812,9 @@
         <v>0.91158126311214016</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>0.045134323159315537</v>
+        <v>4.5134323159315537E-2</v>
       </c>
       <c r="B92">
         <v>0.86903897954256937</v>
@@ -3809,7 +3826,7 @@
         <v>0.97743283842034234</v>
       </c>
       <c r="E92">
-        <v>0.029674460457758234</v>
+        <v>2.9674460457758234E-2</v>
       </c>
       <c r="F92">
         <v>0.55373389780389481</v>
@@ -3833,9 +3850,9 @@
         <v>0.91942763288389617</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>0.049968426543667462</v>
+        <v>4.9968426543667462E-2</v>
       </c>
       <c r="B93">
         <v>0.8670004182519444</v>
@@ -3847,7 +3864,7 @@
         <v>0.97501578672816624</v>
       </c>
       <c r="E93">
-        <v>0.029164888319817898</v>
+        <v>2.9164888319817898E-2</v>
       </c>
       <c r="F93">
         <v>0.54454358693805882</v>
@@ -3871,9 +3888,9 @@
         <v>0.90822586294540808</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>0.038978389164682159</v>
+        <v>3.8978389164682159E-2</v>
       </c>
       <c r="B94">
         <v>0.88609826420979065</v>
@@ -3885,7 +3902,7 @@
         <v>0.980510805417659</v>
       </c>
       <c r="E94">
-        <v>0.0094747534295087261</v>
+        <v>9.4747534295087261E-3</v>
       </c>
       <c r="F94">
         <v>0.53616140531310197</v>
@@ -3909,9 +3926,9 @@
         <v>0.93944152393393132</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>0.040618035652400478</v>
+        <v>4.0618035652400478E-2</v>
       </c>
       <c r="B95">
         <v>0.86777869639715588</v>
@@ -3923,7 +3940,7 @@
         <v>0.97969098217379968</v>
       </c>
       <c r="E95">
-        <v>0.017714897158482939</v>
+        <v>1.7714897158482939E-2</v>
       </c>
       <c r="F95">
         <v>0.52628660117417825</v>
@@ -3947,9 +3964,9 @@
         <v>0.91870237471868577</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>0.047678260969684409</v>
+        <v>4.7678260969684409E-2</v>
       </c>
       <c r="B96">
         <v>0.876935843628464</v>
@@ -3961,7 +3978,7 @@
         <v>0.97616086951515779</v>
       </c>
       <c r="E96">
-        <v>0.024049831324191452</v>
+        <v>2.4049831324191452E-2</v>
       </c>
       <c r="F96">
         <v>0.58054237409239007</v>
@@ -3985,9 +4002,9 @@
         <v>0.92075652731243218</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>0.044019500465652173</v>
+        <v>4.4019500465652173E-2</v>
       </c>
       <c r="B97">
         <v>0.87742151339523411</v>
@@ -3999,7 +4016,7 @@
         <v>0.97799024976717386</v>
       </c>
       <c r="E97">
-        <v>0.027292454613144369</v>
+        <v>2.7292454613144369E-2</v>
       </c>
       <c r="F97">
         <v>0.58539931689039937</v>
@@ -4023,9 +4040,9 @@
         <v>0.92188371674685599</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>0.029237317860787822</v>
+        <v>2.9237317860787822E-2</v>
       </c>
       <c r="B98">
         <v>0.90360027922568842</v>
@@ -4037,7 +4054,7 @@
         <v>0.98538134106960618</v>
       </c>
       <c r="E98">
-        <v>0.0029984091459399282</v>
+        <v>2.9984091459399282E-3</v>
       </c>
       <c r="F98">
         <v>0.5706952552234914</v>
@@ -4049,7 +4066,7 @@
         <v>0.99850079542702996</v>
       </c>
       <c r="I98">
-        <v>0.085808812381053673</v>
+        <v>8.5808812381053673E-2</v>
       </c>
       <c r="J98">
         <v>0.8517618226051521</v>
@@ -4061,9 +4078,9 @@
         <v>0.95709559380947318</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>0.038364552853021219</v>
+        <v>3.8364552853021219E-2</v>
       </c>
       <c r="B99">
         <v>0.87091258308427011</v>
@@ -4075,7 +4092,7 @@
         <v>0.9808177235734894</v>
       </c>
       <c r="E99">
-        <v>0.0083661656695364559</v>
+        <v>8.3661656695364559E-3</v>
       </c>
       <c r="F99">
         <v>0.55457567561030385</v>
@@ -4099,9 +4116,9 @@
         <v>0.92696799881897463</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>0.028292358661505965</v>
+        <v>2.8292358661505965E-2</v>
       </c>
       <c r="B100">
         <v>0.90624721293060273</v>
@@ -4113,7 +4130,7 @@
         <v>0.98585382066924709</v>
       </c>
       <c r="E100">
-        <v>0.0013573641831691129</v>
+        <v>1.3573641831691129E-3</v>
       </c>
       <c r="F100">
         <v>0.62202955036499252</v>
@@ -4125,7 +4142,7 @@
         <v>0.9993213179084155</v>
       </c>
       <c r="I100">
-        <v>0.075673589295478683</v>
+        <v>7.5673589295478683E-2</v>
       </c>
       <c r="J100">
         <v>0.85097471759197674</v>
@@ -4137,9 +4154,9 @@
         <v>0.96217178269307069</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>0.0034174820480481704</v>
+        <v>3.4174820480481704E-3</v>
       </c>
       <c r="B101">
         <v>0.75796450453860953</v>
@@ -4175,7 +4192,7 @@
         <v>0.91063110083025056</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.11072156109491985</v>
       </c>
@@ -4201,7 +4218,7 @@
         <v>0.91458358949477758</v>
       </c>
       <c r="I102">
-        <v>0.049850955579113176</v>
+        <v>4.9850955579113176E-2</v>
       </c>
       <c r="J102">
         <v>0.49873228240431122</v>
@@ -4213,9 +4230,9 @@
         <v>0.976574105151919</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>0.005136106831022085</v>
+        <v>5.136106831022085E-3</v>
       </c>
       <c r="B103">
         <v>0.70582993434725294</v>
@@ -4251,9 +4268,9 @@
         <v>0.92207763091540329</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>0.050019113371251173</v>
+        <v>5.0019113371251173E-2</v>
       </c>
       <c r="B104">
         <v>0.67111347998282977</v>
@@ -4277,7 +4294,7 @@
         <v>0.91658879737638421</v>
       </c>
       <c r="I104">
-        <v>0.080187349651132694</v>
+        <v>8.0187349651132694E-2</v>
       </c>
       <c r="J104">
         <v>0.54112690387828544</v>
@@ -4289,9 +4306,9 @@
         <v>0.96188459127632275</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>0.013786143105367753</v>
+        <v>1.3786143105367753E-2</v>
       </c>
       <c r="B105">
         <v>0.68028180030841068</v>
@@ -4303,7 +4320,7 @@
         <v>0.99419470840015833</v>
       </c>
       <c r="E105">
-        <v>0.086427845581324381</v>
+        <v>8.6427845581324381E-2</v>
       </c>
       <c r="F105">
         <v>0.8168391346189523</v>
@@ -4315,7 +4332,7 @@
         <v>0.95693232015297114</v>
       </c>
       <c r="I105">
-        <v>0.020708694460918452</v>
+        <v>2.0708694460918452E-2</v>
       </c>
       <c r="J105">
         <v>0.54037351190261351</v>
@@ -4327,9 +4344,9 @@
         <v>0.98981212695043574</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>0.05826191275335061</v>
+        <v>5.826191275335061E-2</v>
       </c>
       <c r="B106">
         <v>0.76052335968057772</v>
@@ -4353,7 +4370,7 @@
         <v>0.94236589048364383</v>
       </c>
       <c r="I106">
-        <v>0.029233974816976108</v>
+        <v>2.9233974816976108E-2</v>
       </c>
       <c r="J106">
         <v>0.54901195587155749</v>
@@ -4365,9 +4382,9 @@
         <v>0.9857552082467923</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>0.0042451551527488661</v>
+        <v>4.2451551527488661E-3</v>
       </c>
       <c r="B107">
         <v>0.58580134462977473</v>
@@ -4403,9 +4420,9 @@
         <v>0.90779275800399284</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>0.048982746721877163</v>
+        <v>4.8982746721877163E-2</v>
       </c>
       <c r="B108">
         <v>0.8293580379760942</v>
@@ -4417,7 +4434,7 @@
         <v>0.97670975056689346</v>
       </c>
       <c r="E108">
-        <v>0.092096618357487919</v>
+        <v>9.2096618357487919E-2</v>
       </c>
       <c r="F108">
         <v>0.8277765311563674</v>
@@ -4429,7 +4446,7 @@
         <v>0.95395905221992172</v>
       </c>
       <c r="I108">
-        <v>0.012284334023464459</v>
+        <v>1.2284334023464459E-2</v>
       </c>
       <c r="J108">
         <v>0.50374951273260404</v>
@@ -4441,9 +4458,9 @@
         <v>0.9938872785829308</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>0.070342200097308072</v>
+        <v>7.0342200097308072E-2</v>
       </c>
       <c r="B109">
         <v>0.83258507351867372</v>
@@ -4455,7 +4472,7 @@
         <v>0.96576354645950546</v>
       </c>
       <c r="E109">
-        <v>0.083646469283356187</v>
+        <v>8.3646469283356187E-2</v>
       </c>
       <c r="F109">
         <v>0.84714877212845852</v>
@@ -4467,7 +4484,7 @@
         <v>0.95824273694106266</v>
       </c>
       <c r="I109">
-        <v>0.0088401920872584125</v>
+        <v>8.8401920872584125E-3</v>
       </c>
       <c r="J109">
         <v>0.58019128792095798</v>
@@ -4479,9 +4496,9 @@
         <v>0.99559822939602105</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0.014359939895359993</v>
+        <v>1.4359939895359993E-2</v>
       </c>
       <c r="B110">
         <v>0.81709783359636579</v>
@@ -4493,7 +4510,7 @@
         <v>0.99282003005232</v>
       </c>
       <c r="E110">
-        <v>0.042315839020946114</v>
+        <v>4.2315839020946114E-2</v>
       </c>
       <c r="F110">
         <v>0.91756371456196639</v>
@@ -4505,7 +4522,7 @@
         <v>0.97884208048952692</v>
       </c>
       <c r="I110">
-        <v>0.00038017995184387278</v>
+        <v>3.8017995184387278E-4</v>
       </c>
       <c r="J110">
         <v>0.56107478114195031</v>
@@ -4517,9 +4534,9 @@
         <v>0.99980991002407804</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>0.02022568487029015</v>
+        <v>2.022568487029015E-2</v>
       </c>
       <c r="B111">
         <v>0.83902083279123374</v>
@@ -4531,7 +4548,7 @@
         <v>0.9898871575648549</v>
       </c>
       <c r="E111">
-        <v>0.036986608755842747</v>
+        <v>3.6986608755842747E-2</v>
       </c>
       <c r="F111">
         <v>0.88929562739248968</v>
@@ -4543,7 +4560,7 @@
         <v>0.9815066956220786</v>
       </c>
       <c r="I111">
-        <v>0.00084051830694511533</v>
+        <v>8.4051830694511533E-4</v>
       </c>
       <c r="J111">
         <v>0.78485236430390415</v>
@@ -4555,9 +4572,9 @@
         <v>0.99957974084652745</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>0.037388144519681761</v>
+        <v>3.7388144519681761E-2</v>
       </c>
       <c r="B112">
         <v>0.73181196409596372</v>
@@ -4569,7 +4586,7 @@
         <v>0.98251612799948773</v>
       </c>
       <c r="E112">
-        <v>0.091181225888040465</v>
+        <v>9.1181225888040465E-2</v>
       </c>
       <c r="F112">
         <v>0.82979459733328065</v>
@@ -4581,7 +4598,7 @@
         <v>0.95443499975988089</v>
       </c>
       <c r="I112">
-        <v>0.014135010965438857</v>
+        <v>1.4135010965438857E-2</v>
       </c>
       <c r="J112">
         <v>0.5552212426048746</v>
@@ -4593,9 +4610,9 @@
         <v>0.99295810722118172</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>0.0029671938972509106</v>
+        <v>2.9671938972509106E-3</v>
       </c>
       <c r="B113">
         <v>0.59239387121185316</v>
@@ -4607,7 +4624,7 @@
         <v>0.99983129085109412</v>
       </c>
       <c r="E113">
-        <v>0.028972752602816919</v>
+        <v>2.8972752602816919E-2</v>
       </c>
       <c r="F113">
         <v>0.79984487584185981</v>
@@ -4619,7 +4636,7 @@
         <v>0.98551826175079515</v>
       </c>
       <c r="I113">
-        <v>0.086521704345043249</v>
+        <v>8.6521704345043249E-2</v>
       </c>
       <c r="J113">
         <v>0.81615181396909575</v>
@@ -4631,9 +4648,9 @@
         <v>0.95674842393188553</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>0.049115694392651447</v>
+        <v>4.9115694392651447E-2</v>
       </c>
       <c r="B114">
         <v>0.82481866117345937</v>
@@ -4645,7 +4662,7 @@
         <v>0.97765980358275484</v>
       </c>
       <c r="E114">
-        <v>0.061941233278831165</v>
+        <v>6.1941233278831165E-2</v>
       </c>
       <c r="F114">
         <v>0.84748664664774631</v>
@@ -4657,7 +4674,7 @@
         <v>0.96903788272366342</v>
       </c>
       <c r="I114">
-        <v>0.0036908484170467474</v>
+        <v>3.6908484170467474E-3</v>
       </c>
       <c r="J114">
         <v>0.54081128208788931</v>
@@ -4669,9 +4686,9 @@
         <v>0.99815457579147659</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>0.05554906092376475</v>
+        <v>5.554906092376475E-2</v>
       </c>
       <c r="B115">
         <v>0.80571183302525928</v>
@@ -4683,7 +4700,7 @@
         <v>0.97405615801751422</v>
       </c>
       <c r="E115">
-        <v>0.080055999566602129</v>
+        <v>8.0055999566602129E-2</v>
       </c>
       <c r="F115">
         <v>0.8379550127920693</v>
@@ -4695,7 +4712,7 @@
         <v>0.96001001757352333</v>
       </c>
       <c r="I115">
-        <v>0.0087563477105472506</v>
+        <v>8.7563477105472506E-3</v>
       </c>
       <c r="J115">
         <v>0.5555398283298334</v>
@@ -4707,9 +4724,9 @@
         <v>0.99563323135177362</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>0.023826076746478311</v>
+        <v>2.3826076746478311E-2</v>
       </c>
       <c r="B116">
         <v>0.84031972806792787</v>
@@ -4721,7 +4738,7 @@
         <v>0.98925493685827015</v>
       </c>
       <c r="E116">
-        <v>0.052611413404524202</v>
+        <v>5.2611413404524202E-2</v>
       </c>
       <c r="F116">
         <v>0.88953793245999124</v>
@@ -4733,7 +4750,7 @@
         <v>0.97369429329773793</v>
       </c>
       <c r="I116">
-        <v>0.0010629192583048292</v>
+        <v>1.0629192583048292E-3</v>
       </c>
       <c r="J116">
         <v>0.70565362257570985</v>
@@ -4745,9 +4762,9 @@
         <v>0.99946854037084765</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>0.020510238436829861</v>
+        <v>2.0510238436829861E-2</v>
       </c>
       <c r="B117">
         <v>0.80127283801702576</v>
@@ -4759,7 +4776,7 @@
         <v>0.99031814831553366</v>
       </c>
       <c r="E117">
-        <v>0.067727464367934614</v>
+        <v>6.7727464367934614E-2</v>
       </c>
       <c r="F117">
         <v>0.86923786090626098</v>
@@ -4771,7 +4788,7 @@
         <v>0.96613626781603279</v>
       </c>
       <c r="I117">
-        <v>0.006952006284710743</v>
+        <v>6.952006284710743E-3</v>
       </c>
       <c r="J117">
         <v>0.70577838594277631</v>
@@ -4783,9 +4800,9 @@
         <v>0.99652804107305171</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>0.061761950829993403</v>
+        <v>6.1761950829993403E-2</v>
       </c>
       <c r="B118">
         <v>0.81728121442683077</v>
@@ -4797,7 +4814,7 @@
         <v>0.97059993082474305</v>
       </c>
       <c r="E118">
-        <v>0.086095115247001724</v>
+        <v>8.6095115247001724E-2</v>
       </c>
       <c r="F118">
         <v>0.83785741648015855</v>
@@ -4809,7 +4826,7 @@
         <v>0.95697291708255916</v>
       </c>
       <c r="I118">
-        <v>0.0095238095238095247</v>
+        <v>9.5238095238095247E-3</v>
       </c>
       <c r="J118">
         <v>0.55164225391115196</v>
@@ -4821,9 +4838,9 @@
         <v>0.99527085476779131</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>0.053065745748354723</v>
+        <v>5.3065745748354723E-2</v>
       </c>
       <c r="B119">
         <v>0.77482127487015529</v>
@@ -4847,7 +4864,7 @@
         <v>0.94781028503580145</v>
       </c>
       <c r="I119">
-        <v>0.022414804196259856</v>
+        <v>2.2414804196259856E-2</v>
       </c>
       <c r="J119">
         <v>0.52626457337512977</v>
@@ -4859,9 +4876,9 @@
         <v>0.98907640291624133</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>0.073812396511556258</v>
+        <v>7.3812396511556258E-2</v>
       </c>
       <c r="B120">
         <v>0.77219181986396668</v>
@@ -4885,7 +4902,7 @@
         <v>0.93735892056797732</v>
       </c>
       <c r="I120">
-        <v>0.052297669902209083</v>
+        <v>5.2297669902209083E-2</v>
       </c>
       <c r="J120">
         <v>0.6047364311947474</v>
@@ -4897,9 +4914,9 @@
         <v>0.97428595238354043</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>0.070369792479325941</v>
+        <v>7.0369792479325941E-2</v>
       </c>
       <c r="B121">
         <v>0.91790172984905405</v>
@@ -4911,7 +4928,7 @@
         <v>0.96850132625994689</v>
       </c>
       <c r="E121">
-        <v>0.098124512404431249</v>
+        <v>9.8124512404431249E-2</v>
       </c>
       <c r="F121">
         <v>0.76433057784865044</v>
@@ -4923,7 +4940,7 @@
         <v>0.95128569199563096</v>
       </c>
       <c r="I121">
-        <v>0.013761897331877049</v>
+        <v>1.3761897331877049E-2</v>
       </c>
       <c r="J121">
         <v>0.45153786629034404</v>
@@ -4935,9 +4952,9 @@
         <v>0.99354345451708537</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>0.089994522037801949</v>
+        <v>8.9994522037801949E-2</v>
       </c>
       <c r="B122">
         <v>0.71335412028017042</v>
@@ -4973,9 +4990,9 @@
         <v>0.95037546032875775</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>0.036161228406909787</v>
+        <v>3.6161228406909787E-2</v>
       </c>
       <c r="B123">
         <v>0.67502126759684677</v>
@@ -5011,9 +5028,9 @@
         <v>0.94630838131797823</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>0.091681926999487989</v>
+        <v>9.1681926999487989E-2</v>
       </c>
       <c r="B124">
         <v>0.76467738892793791</v>
@@ -5049,9 +5066,9 @@
         <v>0.93711512825598609</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>0.044569309255294592</v>
+        <v>4.4569309255294592E-2</v>
       </c>
       <c r="B125">
         <v>0.90477277152322788</v>
@@ -5075,7 +5092,7 @@
         <v>0.93158014118920462</v>
       </c>
       <c r="I125">
-        <v>0.031970520585449712</v>
+        <v>3.1970520585449712E-2</v>
       </c>
       <c r="J125">
         <v>0.50888624873716315</v>
@@ -5087,9 +5104,9 @@
         <v>0.98511438129574647</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>0.023113768921324662</v>
+        <v>2.3113768921324662E-2</v>
       </c>
       <c r="B126">
         <v>0.94320304430631696</v>
@@ -5101,7 +5118,7 @@
         <v>0.98914021697435839</v>
       </c>
       <c r="E126">
-        <v>0.074603377560956419</v>
+        <v>7.4603377560956419E-2</v>
       </c>
       <c r="F126">
         <v>0.75177217270606733</v>
@@ -5113,7 +5130,7 @@
         <v>0.96273765380491971</v>
       </c>
       <c r="I126">
-        <v>0.0087832321901033725</v>
+        <v>8.7832321901033725E-3</v>
       </c>
       <c r="J126">
         <v>0.41331152309149449</v>
@@ -5125,9 +5142,9 @@
         <v>0.99562149810008105</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>0.050092464056743981</v>
+        <v>5.0092464056743981E-2</v>
       </c>
       <c r="B127">
         <v>0.90157703037456149</v>
@@ -5139,7 +5156,7 @@
         <v>0.97591887689281509</v>
       </c>
       <c r="E127">
-        <v>0.074290086970171143</v>
+        <v>7.4290086970171143E-2</v>
       </c>
       <c r="F127">
         <v>0.79007345524753148</v>
@@ -5151,7 +5168,7 @@
         <v>0.9628811178749126</v>
       </c>
       <c r="I127">
-        <v>0.010198025144337129</v>
+        <v>1.0198025144337129E-2</v>
       </c>
       <c r="J127">
         <v>0.45236303420746754</v>
@@ -5163,9 +5180,9 @@
         <v>0.99492060844783015</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>0.069071607920414446</v>
+        <v>6.9071607920414446E-2</v>
       </c>
       <c r="B128">
         <v>0.86056758259089128</v>
@@ -5189,7 +5206,7 @@
         <v>0.92026931104260001</v>
       </c>
       <c r="I128">
-        <v>0.043479642754982041</v>
+        <v>4.3479642754982041E-2</v>
       </c>
       <c r="J128">
         <v>0.53101794287672921</v>
@@ -5201,9 +5218,9 @@
         <v>0.97962156607231765</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>0.089654936522685941</v>
+        <v>8.9654936522685941E-2</v>
       </c>
       <c r="B129">
         <v>0.8758508980244889</v>
@@ -5239,9 +5256,9 @@
         <v>0.93552525315866386</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>0.079492600422832987</v>
+        <v>7.9492600422832987E-2</v>
       </c>
       <c r="B130">
         <v>0.90377424202118806</v>
@@ -5277,9 +5294,9 @@
         <v>0.95846859843303078</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>0.082687209697518985</v>
+        <v>8.2687209697518985E-2</v>
       </c>
       <c r="B131">
         <v>0.83301029554718553</v>
@@ -5303,7 +5320,7 @@
         <v>0.94283901665344982</v>
       </c>
       <c r="I131">
-        <v>0.032912654355953329</v>
+        <v>3.2912654355953329E-2</v>
       </c>
       <c r="J131">
         <v>0.51419961917990098</v>
@@ -5315,9 +5332,9 @@
         <v>0.98438616366451415</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>0.030664193827260839</v>
+        <v>3.0664193827260839E-2</v>
       </c>
       <c r="B132">
         <v>0.94801743359285051</v>
@@ -5329,7 +5346,7 @@
         <v>0.98693723815364609</v>
       </c>
       <c r="E132">
-        <v>0.061047607084537117</v>
+        <v>6.1047607084537117E-2</v>
       </c>
       <c r="F132">
         <v>0.80768919375957737</v>
@@ -5341,7 +5358,7 @@
         <v>0.96947619645773153</v>
       </c>
       <c r="I132">
-        <v>0.0018102957801635917</v>
+        <v>1.8102957801635917E-3</v>
       </c>
       <c r="J132">
         <v>0.36273115964966057</v>
@@ -5353,9 +5370,9 @@
         <v>0.99909485210991811</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0.040372342301047213</v>
+        <v>4.0372342301047213E-2</v>
       </c>
       <c r="B133">
         <v>0.93753455171900224</v>
@@ -5379,7 +5396,7 @@
         <v>0.9412650000587659</v>
       </c>
       <c r="I133">
-        <v>0.023313705440569796</v>
+        <v>2.3313705440569796E-2</v>
       </c>
       <c r="J133">
         <v>0.47113305035567976</v>
@@ -5391,9 +5408,9 @@
         <v>0.98865343253058779</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.014099607305366826</v>
+        <v>1.4099607305366826E-2</v>
       </c>
       <c r="B134">
         <v>0.89074735305653718</v>
@@ -5405,7 +5422,7 @@
         <v>0.99295019634731663</v>
       </c>
       <c r="E134">
-        <v>0.051212366764320887</v>
+        <v>5.1212366764320887E-2</v>
       </c>
       <c r="F134">
         <v>0.77512915858973219</v>
@@ -5417,7 +5434,7 @@
         <v>0.97439381661783953</v>
       </c>
       <c r="I134">
-        <v>0.0022190363398366889</v>
+        <v>2.2190363398366889E-3</v>
       </c>
       <c r="J134">
         <v>0.14314676272691162</v>
@@ -5429,9 +5446,9 @@
         <v>0.99889048183008167</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>0.060832324944654785</v>
+        <v>6.0832324944654785E-2</v>
       </c>
       <c r="B135">
         <v>0.84349867150947244</v>
@@ -5455,7 +5472,7 @@
         <v>0.91982659432291114</v>
       </c>
       <c r="I135">
-        <v>0.067273001020470749</v>
+        <v>6.7273001020470749E-2</v>
       </c>
       <c r="J135">
         <v>0.45341690698600745</v>
@@ -5467,9 +5484,9 @@
         <v>0.97054993893904495</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>0.043427778076203148</v>
+        <v>4.3427778076203148E-2</v>
       </c>
       <c r="B136">
         <v>0.74163200004779195</v>
@@ -5481,7 +5498,7 @@
         <v>0.97828611096189844</v>
       </c>
       <c r="E136">
-        <v>0.06612096144390131</v>
+        <v>6.612096144390131E-2</v>
       </c>
       <c r="F136">
         <v>0.78899608224451578</v>
@@ -5493,7 +5510,7 @@
         <v>0.966961556843835</v>
       </c>
       <c r="I136">
-        <v>0.012123415877790679</v>
+        <v>1.2123415877790679E-2</v>
       </c>
       <c r="J136">
         <v>0.51420180379359282</v>
@@ -5505,9 +5522,9 @@
         <v>0.99397685780122935</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>0.040963309989093824</v>
+        <v>4.0963309989093824E-2</v>
       </c>
       <c r="B137">
         <v>0.90905928459648966</v>
@@ -5519,7 +5536,7 @@
         <v>0.97951834500545309</v>
       </c>
       <c r="E137">
-        <v>0.071006728902729299</v>
+        <v>7.1006728902729299E-2</v>
       </c>
       <c r="F137">
         <v>0.82957504394366999</v>
@@ -5531,7 +5548,7 @@
         <v>0.96449663554863529</v>
       </c>
       <c r="I137">
-        <v>0.0092530986562772213</v>
+        <v>9.2530986562772213E-3</v>
       </c>
       <c r="J137">
         <v>0.58963738398122556</v>
@@ -5543,9 +5560,9 @@
         <v>0.99537345067186145</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>0.057190468255290783</v>
+        <v>5.7190468255290783E-2</v>
       </c>
       <c r="B138">
         <v>0.87249298568238931</v>
@@ -5557,7 +5574,7 @@
         <v>0.97171971338110319</v>
       </c>
       <c r="E138">
-        <v>0.099450091651391445</v>
+        <v>9.9450091651391445E-2</v>
       </c>
       <c r="F138">
         <v>0.80480600069544306</v>
@@ -5569,7 +5586,7 @@
         <v>0.95028384158195844</v>
       </c>
       <c r="I138">
-        <v>0.009245125812364606</v>
+        <v>9.245125812364606E-3</v>
       </c>
       <c r="J138">
         <v>0.47218423733026726</v>
@@ -5581,9 +5598,9 @@
         <v>0.99537743709381765</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>0.050644051524121936</v>
+        <v>5.0644051524121936E-2</v>
       </c>
       <c r="B139">
         <v>0.89499744191169495</v>
@@ -5607,7 +5624,7 @@
         <v>0.94800353259029957</v>
       </c>
       <c r="I139">
-        <v>0.024211167662643779</v>
+        <v>2.4211167662643779E-2</v>
       </c>
       <c r="J139">
         <v>0.50990127214932801</v>
@@ -5619,9 +5636,9 @@
         <v>0.98838368607950167</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>0.049358153387937462</v>
+        <v>4.9358153387937462E-2</v>
       </c>
       <c r="B140">
         <v>0.88862083947657733</v>
@@ -5645,7 +5662,7 @@
         <v>0.92890791759741875</v>
       </c>
       <c r="I140">
-        <v>0.043621742367833206</v>
+        <v>4.3621742367833206E-2</v>
       </c>
       <c r="J140">
         <v>0.46881612147818225</v>
@@ -5657,9 +5674,9 @@
         <v>0.97987341772151904</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>0.021362875532777693</v>
+        <v>2.1362875532777693E-2</v>
       </c>
       <c r="B141">
         <v>0.54340433419797873</v>
@@ -5695,9 +5712,9 @@
         <v>0.93647890267448164</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>0.0059489643228034794</v>
+        <v>5.9489643228034794E-3</v>
       </c>
       <c r="B142">
         <v>0.49269567918454144</v>
@@ -5733,9 +5750,9 @@
         <v>0.82363294923307129</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>0.0097152266838825638</v>
+        <v>9.7152266838825638E-3</v>
       </c>
       <c r="B143">
         <v>0.90500379469607906</v>
@@ -5771,9 +5788,9 @@
         <v>0.88053461239108533</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>0.00077611194908705613</v>
+        <v>7.7611194908705613E-4</v>
       </c>
       <c r="B144">
         <v>0.40986809876981883</v>
@@ -5809,9 +5826,9 @@
         <v>0.91212388096467334</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>0.0012136157714634041</v>
+        <v>1.2136157714634041E-3</v>
       </c>
       <c r="B145">
         <v>0.57837506318919774</v>
@@ -5847,9 +5864,9 @@
         <v>0.92792101337840527</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>0.0024893385300934698</v>
+        <v>2.4893385300934698E-3</v>
       </c>
       <c r="B146">
         <v>0.53117573297869847</v>
@@ -5885,9 +5902,9 @@
         <v>0.91742164634105783</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>0.0071087853476904505</v>
+        <v>7.1087853476904505E-3</v>
       </c>
       <c r="B147">
         <v>0.47642814337671135</v>
@@ -5923,9 +5940,9 @@
         <v>0.85265841467914516</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>0.0031796771991707403</v>
+        <v>3.1796771991707403E-3</v>
       </c>
       <c r="B148">
         <v>0.46720168121147221</v>
@@ -5961,9 +5978,9 @@
         <v>0.92814989422273841</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>0.00089437870895224742</v>
+        <v>8.9437870895224742E-4</v>
       </c>
       <c r="B149">
         <v>0.4273875124068765</v>
@@ -5999,9 +6016,9 @@
         <v>0.91392880691760303</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>0.00058077922469744795</v>
+        <v>5.8077922469744795E-4</v>
       </c>
       <c r="B150">
         <v>0.5902789728047374</v>
@@ -6037,9 +6054,9 @@
         <v>0.85258390185585364</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>0.0022170991317996764</v>
+        <v>2.2170991317996764E-3</v>
       </c>
       <c r="B151">
         <v>0.43014961472953678</v>
@@ -6075,9 +6092,9 @@
         <v>0.90009728421706636</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>0.0016495720353049484</v>
+        <v>1.6495720353049484E-3</v>
       </c>
       <c r="B152">
         <v>0.55056860277017949</v>
@@ -6113,9 +6130,9 @@
         <v>0.86641318471214046</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>0.00013237119745847302</v>
+        <v>1.3237119745847302E-4</v>
       </c>
       <c r="B153">
         <v>0.69914391271967147</v>
@@ -6151,9 +6168,9 @@
         <v>0.9087485436186945</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.013203622381442655</v>
+        <v>1.3203622381442655E-2</v>
       </c>
       <c r="B154">
         <v>0.53072177875872473</v>
@@ -6189,9 +6206,9 @@
         <v>0.86371350128520297</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0.0051180378129790493</v>
+        <v>5.1180378129790493E-3</v>
       </c>
       <c r="B155">
         <v>0.52397382682002591</v>
@@ -6227,9 +6244,9 @@
         <v>0.81195700902742307</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0.0014188645930223393</v>
+        <v>1.4188645930223393E-3</v>
       </c>
       <c r="B156">
         <v>0.44373410506007194</v>
@@ -6241,7 +6258,7 @@
         <v>0.99929056770348879</v>
       </c>
       <c r="E156">
-        <v>0.069424519031178231</v>
+        <v>6.9424519031178231E-2</v>
       </c>
       <c r="F156">
         <v>0.79088757884933369</v>
@@ -6253,7 +6270,7 @@
         <v>0.96528774048441091</v>
       </c>
       <c r="I156">
-        <v>0.058236508962494681</v>
+        <v>5.8236508962494681E-2</v>
       </c>
       <c r="J156">
         <v>0.56952748154223709</v>
@@ -6265,9 +6282,9 @@
         <v>0.97088174551875261</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>0.0016958651104992568</v>
+        <v>1.6958651104992568E-3</v>
       </c>
       <c r="B157">
         <v>0.51313520592687067</v>
@@ -6279,7 +6296,7 @@
         <v>0.99915206744475038</v>
       </c>
       <c r="E157">
-        <v>0.057289052411003641</v>
+        <v>5.7289052411003641E-2</v>
       </c>
       <c r="F157">
         <v>0.79037107585520028</v>
@@ -6303,9 +6320,9 @@
         <v>0.93415852440242686</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>0.0063518322789495986</v>
+        <v>6.3518322789495986E-3</v>
       </c>
       <c r="B158">
         <v>0.48064338003281321</v>
@@ -6317,7 +6334,7 @@
         <v>0.99683089182652629</v>
       </c>
       <c r="E158">
-        <v>0.085453589244775321</v>
+        <v>8.5453589244775321E-2</v>
       </c>
       <c r="F158">
         <v>0.79045399636481772</v>
@@ -6341,9 +6358,9 @@
         <v>0.91835461673704399</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>0.0068423921383930688</v>
+        <v>6.8423921383930688E-3</v>
       </c>
       <c r="B159">
         <v>0.4732027175784797</v>
@@ -6379,9 +6396,9 @@
         <v>0.90723963542521091</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>0.003196544276457883</v>
+        <v>3.196544276457883E-3</v>
       </c>
       <c r="B160">
         <v>0.50047169179232909</v>
@@ -6417,9 +6434,9 @@
         <v>0.9074760334962676</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>0.016603880746686547</v>
+        <v>1.6603880746686547E-2</v>
       </c>
       <c r="B161">
         <v>0.95697161745721915</v>
@@ -6431,7 +6448,7 @@
         <v>0.99169805962665669</v>
       </c>
       <c r="E161">
-        <v>0.070852690476507413</v>
+        <v>7.0852690476507413E-2</v>
       </c>
       <c r="F161">
         <v>0.86397700460713578</v>
@@ -6443,7 +6460,7 @@
         <v>0.96457365476174617</v>
       </c>
       <c r="I161">
-        <v>0.072161654885986998</v>
+        <v>7.2161654885986998E-2</v>
       </c>
       <c r="J161">
         <v>0.84732660802510773</v>
@@ -6455,9 +6472,9 @@
         <v>0.96391917255700654</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>0.044018936846408452</v>
+        <v>4.4018936846408452E-2</v>
       </c>
       <c r="B162">
         <v>0.90279204650340628</v>
@@ -6469,7 +6486,7 @@
         <v>0.97799053157679583</v>
       </c>
       <c r="E162">
-        <v>0.089207140439486049</v>
+        <v>8.9207140439486049E-2</v>
       </c>
       <c r="F162">
         <v>0.76051167642892203</v>
@@ -6481,7 +6498,7 @@
         <v>0.95544331766984769</v>
       </c>
       <c r="I162">
-        <v>0.09713265902687114</v>
+        <v>9.713265902687114E-2</v>
       </c>
       <c r="J162">
         <v>0.65382800286412368</v>
@@ -6493,9 +6510,9 @@
         <v>0.95146297541755864</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>0.074830340820874988</v>
+        <v>7.4830340820874988E-2</v>
       </c>
       <c r="B163">
         <v>0.8419971049149525</v>
@@ -6507,7 +6524,7 @@
         <v>0.96264910391572567</v>
       </c>
       <c r="E163">
-        <v>0.098695314652042176</v>
+        <v>9.8695314652042176E-2</v>
       </c>
       <c r="F163">
         <v>0.77363536608937111</v>
@@ -6519,7 +6536,7 @@
         <v>0.95073915475087434</v>
       </c>
       <c r="I163">
-        <v>0.085087521598677787</v>
+        <v>8.5087521598677787E-2</v>
       </c>
       <c r="J163">
         <v>0.6026101082746409</v>
@@ -6531,9 +6548,9 @@
         <v>0.9575096620172121</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.01554066736383242</v>
+        <v>1.554066736383242E-2</v>
       </c>
       <c r="B164">
         <v>0.87255466847371543</v>
@@ -6545,7 +6562,7 @@
         <v>0.99222966631808374</v>
       </c>
       <c r="E164">
-        <v>0.084188510555166102</v>
+        <v>8.4188510555166102E-2</v>
       </c>
       <c r="F164">
         <v>0.77232450391487517</v>
@@ -6557,7 +6574,7 @@
         <v>0.95793128192948918</v>
       </c>
       <c r="I164">
-        <v>0.09474559195884423</v>
+        <v>9.474559195884423E-2</v>
       </c>
       <c r="J164">
         <v>0.74452344486870203</v>
@@ -6569,9 +6586,9 @@
         <v>0.95263231146199234</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.095427659904854661</v>
+        <v>9.5427659904854661E-2</v>
       </c>
       <c r="B165">
         <v>0.80762573159792583</v>
@@ -6607,9 +6624,9 @@
         <v>0.89863948139050842</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>0.039906999676142321</v>
+        <v>3.9906999676142321E-2</v>
       </c>
       <c r="B166">
         <v>0.91805935410498685</v>
@@ -6645,7 +6662,7 @@
         <v>0.87957610091469651</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>0.10004586900327087</v>
       </c>
@@ -6683,9 +6700,9 @@
         <v>0.88865013667819825</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>0.034723849160958983</v>
+        <v>3.4723849160958983E-2</v>
       </c>
       <c r="B168">
         <v>0.89191200804323334</v>
@@ -6721,9 +6738,9 @@
         <v>0.82932379066772643</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.093334664935583761</v>
+        <v>9.3334664935583761E-2</v>
       </c>
       <c r="B169">
         <v>0.79848801703952588</v>
@@ -6759,7 +6776,7 @@
         <v>0.84172176170977731</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>0.10481368942907406</v>
       </c>
@@ -6797,7 +6814,7 @@
         <v>0.88709271401579104</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>0.10056942912223224</v>
       </c>
@@ -6835,7 +6852,7 @@
         <v>0.87007259323643515</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0.11092361884018079</v>
       </c>
@@ -6873,7 +6890,7 @@
         <v>0.85446557389256561</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0.10125509568849529</v>
       </c>
@@ -6911,9 +6928,9 @@
         <v>0.87855192079844169</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.056236481614996399</v>
+        <v>5.6236481614996399E-2</v>
       </c>
       <c r="B174">
         <v>0.8848637462992599</v>
@@ -6949,9 +6966,9 @@
         <v>0.83882150581934289</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.05269386483961383</v>
+        <v>5.269386483961383E-2</v>
       </c>
       <c r="B175">
         <v>0.89461990632021282</v>
@@ -6987,9 +7004,9 @@
         <v>0.82318841482404237</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.095490004408410475</v>
+        <v>9.5490004408410475E-2</v>
       </c>
       <c r="B176">
         <v>0.79560358433876122</v>
@@ -7025,9 +7042,9 @@
         <v>0.8469711025498502</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.09587022445226584</v>
+        <v>9.587022445226584E-2</v>
       </c>
       <c r="B177">
         <v>0.79060576687992112</v>
@@ -7063,9 +7080,9 @@
         <v>0.81293283211479317</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.085867331049517243</v>
+        <v>8.5867331049517243E-2</v>
       </c>
       <c r="B178">
         <v>0.80976884615384659</v>
@@ -7101,9 +7118,9 @@
         <v>0.85372262015986711</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>0.088661238513716017</v>
+        <v>8.8661238513716017E-2</v>
       </c>
       <c r="B179">
         <v>0.82291831396213577</v>
@@ -7139,9 +7156,9 @@
         <v>0.92016760020204325</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.022008122609907213</v>
+        <v>2.2008122609907213E-2</v>
       </c>
       <c r="B180">
         <v>0.94385793164353848</v>
@@ -7177,9 +7194,9 @@
         <v>0.86975464184428719</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>0.016603880746686547</v>
+        <v>1.6603880746686547E-2</v>
       </c>
       <c r="B181">
         <v>0.95697161745721915</v>
@@ -7191,7 +7208,7 @@
         <v>0.99169805962665669</v>
       </c>
       <c r="E181">
-        <v>0.070852690476507413</v>
+        <v>7.0852690476507413E-2</v>
       </c>
       <c r="F181">
         <v>0.86397700460713578</v>
@@ -7203,7 +7220,7 @@
         <v>0.96457365476174617</v>
       </c>
       <c r="I181">
-        <v>0.072161654885986998</v>
+        <v>7.2161654885986998E-2</v>
       </c>
       <c r="J181">
         <v>0.84732660802510773</v>
@@ -7215,9 +7232,9 @@
         <v>0.96391917255700654</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>0.044018936846408452</v>
+        <v>4.4018936846408452E-2</v>
       </c>
       <c r="B182">
         <v>0.90279204650340628</v>
@@ -7229,7 +7246,7 @@
         <v>0.97799053157679583</v>
       </c>
       <c r="E182">
-        <v>0.089207140439486049</v>
+        <v>8.9207140439486049E-2</v>
       </c>
       <c r="F182">
         <v>0.76051167642892203</v>
@@ -7241,7 +7258,7 @@
         <v>0.95544331766984769</v>
       </c>
       <c r="I182">
-        <v>0.09713265902687114</v>
+        <v>9.713265902687114E-2</v>
       </c>
       <c r="J182">
         <v>0.65382800286412368</v>
@@ -7253,9 +7270,9 @@
         <v>0.95146297541755864</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>0.074830340820874988</v>
+        <v>7.4830340820874988E-2</v>
       </c>
       <c r="B183">
         <v>0.8419971049149525</v>
@@ -7267,7 +7284,7 @@
         <v>0.96264910391572567</v>
       </c>
       <c r="E183">
-        <v>0.098695314652042176</v>
+        <v>9.8695314652042176E-2</v>
       </c>
       <c r="F183">
         <v>0.77363536608937111</v>
@@ -7279,7 +7296,7 @@
         <v>0.95073915475087434</v>
       </c>
       <c r="I183">
-        <v>0.085087521598677787</v>
+        <v>8.5087521598677787E-2</v>
       </c>
       <c r="J183">
         <v>0.6026101082746409</v>
@@ -7291,9 +7308,9 @@
         <v>0.9575096620172121</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>0.01554066736383242</v>
+        <v>1.554066736383242E-2</v>
       </c>
       <c r="B184">
         <v>0.87255466847371543</v>
@@ -7305,7 +7322,7 @@
         <v>0.99222966631808374</v>
       </c>
       <c r="E184">
-        <v>0.084188510555166102</v>
+        <v>8.4188510555166102E-2</v>
       </c>
       <c r="F184">
         <v>0.77232450391487517</v>
@@ -7317,7 +7334,7 @@
         <v>0.95793128192948918</v>
       </c>
       <c r="I184">
-        <v>0.09474559195884423</v>
+        <v>9.474559195884423E-2</v>
       </c>
       <c r="J184">
         <v>0.74452344486870203</v>
@@ -7329,9 +7346,9 @@
         <v>0.95263231146199234</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>0.095427659904854661</v>
+        <v>9.5427659904854661E-2</v>
       </c>
       <c r="B185">
         <v>0.80762573159792583</v>
@@ -7367,9 +7384,9 @@
         <v>0.89863948139050842</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>0.039906999676142321</v>
+        <v>3.9906999676142321E-2</v>
       </c>
       <c r="B186">
         <v>0.91805935410498685</v>
@@ -7405,7 +7422,7 @@
         <v>0.87957610091469651</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>0.10004586900327087</v>
       </c>
@@ -7443,9 +7460,9 @@
         <v>0.88865013667819825</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>0.034723849160958983</v>
+        <v>3.4723849160958983E-2</v>
       </c>
       <c r="B188">
         <v>0.89191200804323334</v>
@@ -7481,9 +7498,9 @@
         <v>0.82932379066772643</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>0.093334664935583761</v>
+        <v>9.3334664935583761E-2</v>
       </c>
       <c r="B189">
         <v>0.79848801703952588</v>
@@ -7519,7 +7536,7 @@
         <v>0.84172176170977731</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0.10481368942907406</v>
       </c>
@@ -7557,7 +7574,7 @@
         <v>0.88709271401579104</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0.10056942912223224</v>
       </c>
@@ -7595,7 +7612,7 @@
         <v>0.87007259323643515</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0.11092361884018079</v>
       </c>
@@ -7633,7 +7650,7 @@
         <v>0.85446557389256561</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>0.10125509568849529</v>
       </c>
@@ -7671,9 +7688,9 @@
         <v>0.87855192079844169</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>0.056236481614996399</v>
+        <v>5.6236481614996399E-2</v>
       </c>
       <c r="B194">
         <v>0.8848637462992599</v>
@@ -7709,9 +7726,9 @@
         <v>0.83882150581934289</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>0.05269386483961383</v>
+        <v>5.269386483961383E-2</v>
       </c>
       <c r="B195">
         <v>0.89461990632021282</v>
@@ -7747,9 +7764,9 @@
         <v>0.82318841482404237</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>0.095490004408410475</v>
+        <v>9.5490004408410475E-2</v>
       </c>
       <c r="B196">
         <v>0.79560358433876122</v>
@@ -7785,9 +7802,9 @@
         <v>0.8469711025498502</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>0.09587022445226584</v>
+        <v>9.587022445226584E-2</v>
       </c>
       <c r="B197">
         <v>0.79060576687992112</v>
@@ -7823,9 +7840,9 @@
         <v>0.81293283211479317</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>0.085867331049517243</v>
+        <v>8.5867331049517243E-2</v>
       </c>
       <c r="B198">
         <v>0.80976884615384659</v>
@@ -7861,9 +7878,9 @@
         <v>0.85372262015986711</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>0.088661238513716017</v>
+        <v>8.8661238513716017E-2</v>
       </c>
       <c r="B199">
         <v>0.82291831396213577</v>
@@ -7899,9 +7916,9 @@
         <v>0.92016760020204325</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>0.022008122609907213</v>
+        <v>2.2008122609907213E-2</v>
       </c>
       <c r="B200">
         <v>0.94385793164353848</v>
@@ -7937,9 +7954,9 @@
         <v>0.86975464184428719</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>0.0094285839582511077</v>
+        <v>9.4285839582511077E-3</v>
       </c>
       <c r="B201">
         <v>0.67587655241630284</v>
@@ -7951,7 +7968,7 @@
         <v>0.99528570802087446</v>
       </c>
       <c r="E201">
-        <v>0.067488195997602626</v>
+        <v>6.7488195997602626E-2</v>
       </c>
       <c r="F201">
         <v>0.80390961211007173</v>
@@ -7963,7 +7980,7 @@
         <v>0.96626369824633207</v>
       </c>
       <c r="I201">
-        <v>0.040529754856817091</v>
+        <v>4.0529754856817091E-2</v>
       </c>
       <c r="J201">
         <v>0.74193542742171448</v>
@@ -7975,9 +7992,9 @@
         <v>0.97980139065522565</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>0.02956238932861863</v>
+        <v>2.956238932861863E-2</v>
       </c>
       <c r="B202">
         <v>0.79698821327419267</v>
@@ -7989,7 +8006,7 @@
         <v>0.98521880533569073</v>
       </c>
       <c r="E202">
-        <v>0.043452756109605931</v>
+        <v>4.3452756109605931E-2</v>
       </c>
       <c r="F202">
         <v>0.75596514521650848</v>
@@ -8001,7 +8018,7 @@
         <v>0.97831363871586174</v>
       </c>
       <c r="I202">
-        <v>0.043643745242324283</v>
+        <v>4.3643745242324283E-2</v>
       </c>
       <c r="J202">
         <v>0.70288829322558077</v>
@@ -8013,9 +8030,9 @@
         <v>0.97848734787942948</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>0.097509012247941534</v>
+        <v>9.7509012247941534E-2</v>
       </c>
       <c r="B203">
         <v>0.80362510966462353</v>
@@ -8039,7 +8056,7 @@
         <v>0.94932522130142738</v>
       </c>
       <c r="I203">
-        <v>0.042505852816493925</v>
+        <v>4.2505852816493925E-2</v>
       </c>
       <c r="J203">
         <v>0.64723036193819905</v>
@@ -8051,9 +8068,9 @@
         <v>0.97969228025407806</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>0.089717194279998413</v>
+        <v>8.9717194279998413E-2</v>
       </c>
       <c r="B204">
         <v>0.81998107617469029</v>
@@ -8065,7 +8082,7 @@
         <v>0.95514140286000082</v>
       </c>
       <c r="E204">
-        <v>0.07783277878945441</v>
+        <v>7.783277878945441E-2</v>
       </c>
       <c r="F204">
         <v>0.81441499106142212</v>
@@ -8077,7 +8094,7 @@
         <v>0.96116133224212152</v>
       </c>
       <c r="I204">
-        <v>0.026382609628311817</v>
+        <v>2.6382609628311817E-2</v>
       </c>
       <c r="J204">
         <v>0.62920488377530015</v>
@@ -8089,9 +8106,9 @@
         <v>0.98717554131177021</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>0.099398095917972773</v>
+        <v>9.9398095917972773E-2</v>
       </c>
       <c r="B205">
         <v>0.80119853397068086</v>
@@ -8103,7 +8120,7 @@
         <v>0.95030095204101361</v>
       </c>
       <c r="E205">
-        <v>0.084496030152568791</v>
+        <v>8.4496030152568791E-2</v>
       </c>
       <c r="F205">
         <v>0.79046195213213666</v>
@@ -8115,7 +8132,7 @@
         <v>0.95789929172341148</v>
       </c>
       <c r="I205">
-        <v>0.037486747699570611</v>
+        <v>3.7486747699570611E-2</v>
       </c>
       <c r="J205">
         <v>0.66454689920119414</v>
@@ -8127,9 +8144,9 @@
         <v>0.98185435181821212</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>0.044752694392394078</v>
+        <v>4.4752694392394078E-2</v>
       </c>
       <c r="B206">
         <v>0.72592753818283529</v>
@@ -8141,7 +8158,7 @@
         <v>0.97762365280380292</v>
       </c>
       <c r="E206">
-        <v>0.094271665178515318</v>
+        <v>9.4271665178515318E-2</v>
       </c>
       <c r="F206">
         <v>0.78158633099546171</v>
@@ -8153,7 +8170,7 @@
         <v>0.95297148198917636</v>
       </c>
       <c r="I206">
-        <v>0.046362413068903506</v>
+        <v>4.6362413068903506E-2</v>
       </c>
       <c r="J206">
         <v>0.65770414834466617</v>
@@ -8165,9 +8182,9 @@
         <v>0.97748552720382642</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>0.010063881009119934</v>
+        <v>1.0063881009119934E-2</v>
       </c>
       <c r="B207">
         <v>0.64996797613092483</v>
@@ -8191,7 +8208,7 @@
         <v>0.94382341295490935</v>
       </c>
       <c r="I207">
-        <v>0.06992519165522304</v>
+        <v>6.992519165522304E-2</v>
       </c>
       <c r="J207">
         <v>0.6721405753524986</v>
@@ -8203,9 +8220,9 @@
         <v>0.96633766768053475</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>0.095537779210631779</v>
+        <v>9.5537779210631779E-2</v>
       </c>
       <c r="B208">
         <v>0.78558342773546053</v>
@@ -8217,7 +8234,7 @@
         <v>0.95223111039468411</v>
       </c>
       <c r="E208">
-        <v>0.092273558694401348</v>
+        <v>9.2273558694401348E-2</v>
       </c>
       <c r="F208">
         <v>0.78901964552711579</v>
@@ -8229,7 +8246,7 @@
         <v>0.95406322319014469</v>
       </c>
       <c r="I208">
-        <v>0.042555763767152269</v>
+        <v>4.2555763767152269E-2</v>
       </c>
       <c r="J208">
         <v>0.61951562359929813</v>
@@ -8241,9 +8258,9 @@
         <v>0.9796803392281842</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>0.00024210719728494072</v>
+        <v>2.4210719728494072E-4</v>
       </c>
       <c r="B209">
         <v>0.60827051736142645</v>
@@ -8255,7 +8272,7 @@
         <v>0.99987894640135744</v>
       </c>
       <c r="E209">
-        <v>0.083386474422023099</v>
+        <v>8.3386474422023099E-2</v>
       </c>
       <c r="F209">
         <v>0.76977424577073517</v>
@@ -8279,9 +8296,9 @@
         <v>0.93854800531771176</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>0.0029853372802634637</v>
+        <v>2.9853372802634637E-3</v>
       </c>
       <c r="B210">
         <v>0.61409383934553941</v>
@@ -8293,7 +8310,7 @@
         <v>0.99850733135986836</v>
       </c>
       <c r="E210">
-        <v>0.041962319806089249</v>
+        <v>4.1962319806089249E-2</v>
       </c>
       <c r="F210">
         <v>0.81008210681999226</v>
@@ -8305,7 +8322,7 @@
         <v>0.97901884009695539</v>
       </c>
       <c r="I210">
-        <v>0.016766073160665616</v>
+        <v>1.6766073160665616E-2</v>
       </c>
       <c r="J210">
         <v>0.717575927897802</v>
@@ -8317,9 +8334,9 @@
         <v>0.99162255001574728</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>0.00042554717477318098</v>
+        <v>4.2554717477318098E-4</v>
       </c>
       <c r="B211">
         <v>0.55029217615114812</v>
@@ -8331,7 +8348,7 @@
         <v>0.99978722641261353</v>
       </c>
       <c r="E211">
-        <v>0.042009634579294027</v>
+        <v>4.2009634579294027E-2</v>
       </c>
       <c r="F211">
         <v>0.7962542786745993</v>
@@ -8343,7 +8360,7 @@
         <v>0.97899518271035302</v>
       </c>
       <c r="I211">
-        <v>0.022068685226579964</v>
+        <v>2.2068685226579964E-2</v>
       </c>
       <c r="J211">
         <v>0.72090081665120209</v>
@@ -8355,9 +8372,9 @@
         <v>0.98899434596029023</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>0.054103073337504873</v>
+        <v>5.4103073337504873E-2</v>
       </c>
       <c r="B212">
         <v>0.74950393050162389</v>
@@ -8369,7 +8386,7 @@
         <v>0.97294846333124763</v>
       </c>
       <c r="E212">
-        <v>0.092720056346032351</v>
+        <v>9.2720056346032351E-2</v>
       </c>
       <c r="F212">
         <v>0.77390876668508113</v>
@@ -8381,7 +8398,7 @@
         <v>0.95370848989207402</v>
       </c>
       <c r="I212">
-        <v>0.054731827346567397</v>
+        <v>5.4731827346567397E-2</v>
       </c>
       <c r="J212">
         <v>0.68616252319478155</v>
@@ -8393,9 +8410,9 @@
         <v>0.97317013942418629</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>0.00023554110448296167</v>
+        <v>2.3554110448296167E-4</v>
       </c>
       <c r="B213">
         <v>0.60333047032315978</v>
@@ -8431,9 +8448,9 @@
         <v>0.89733181426389141</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>0.010256560535685504</v>
+        <v>1.0256560535685504E-2</v>
       </c>
       <c r="B214">
         <v>0.72828747905784741</v>
@@ -8445,7 +8462,7 @@
         <v>0.99487171973215727</v>
       </c>
       <c r="E214">
-        <v>0.047886415918181949</v>
+        <v>4.7886415918181949E-2</v>
       </c>
       <c r="F214">
         <v>0.79272299595606566</v>
@@ -8457,7 +8474,7 @@
         <v>0.976056792040909</v>
       </c>
       <c r="I214">
-        <v>0.031062726193790385</v>
+        <v>3.1062726193790385E-2</v>
       </c>
       <c r="J214">
         <v>0.7224277942245404</v>
@@ -8469,9 +8486,9 @@
         <v>0.98448817320888704</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>0.062286407231837725</v>
+        <v>6.2286407231837725E-2</v>
       </c>
       <c r="B215">
         <v>0.79139523028235492</v>
@@ -8483,7 +8500,7 @@
         <v>0.96885679638408118</v>
       </c>
       <c r="E215">
-        <v>0.078922054986695384</v>
+        <v>7.8922054986695384E-2</v>
       </c>
       <c r="F215">
         <v>0.80107066012595851</v>
@@ -8495,7 +8512,7 @@
         <v>0.96063696488774464</v>
       </c>
       <c r="I215">
-        <v>0.032661725256743643</v>
+        <v>3.2661725256743643E-2</v>
       </c>
       <c r="J215">
         <v>0.65874902748681086</v>
@@ -8507,9 +8524,9 @@
         <v>0.98412055080364558</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>0.092907730290181956</v>
+        <v>9.2907730290181956E-2</v>
       </c>
       <c r="B216">
         <v>0.77074278148595621</v>
@@ -8533,7 +8550,7 @@
         <v>0.94803849603566659</v>
       </c>
       <c r="I216">
-        <v>0.044774526979303814</v>
+        <v>4.4774526979303814E-2</v>
       </c>
       <c r="J216">
         <v>0.68138063956743178</v>
@@ -8545,9 +8562,9 @@
         <v>0.97858079209850413</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>3.8941568176950488e-05</v>
+        <v>3.8941568176950488E-5</v>
       </c>
       <c r="B217">
         <v>0.53331386173682938</v>
@@ -8559,7 +8576,7 @@
         <v>0.99998052921591141</v>
       </c>
       <c r="E217">
-        <v>0.093170483403938104</v>
+        <v>9.3170483403938104E-2</v>
       </c>
       <c r="F217">
         <v>0.81950964000722426</v>
@@ -8571,7 +8588,7 @@
         <v>0.95341846701880983</v>
       </c>
       <c r="I217">
-        <v>0.071404928333606843</v>
+        <v>7.1404928333606843E-2</v>
       </c>
       <c r="J217">
         <v>0.81434333333816611</v>
@@ -8583,9 +8600,9 @@
         <v>0.96430866199553278</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>0.0047255994073077071</v>
+        <v>4.7255994073077071E-3</v>
       </c>
       <c r="B218">
         <v>0.58123882050800435</v>
@@ -8597,7 +8614,7 @@
         <v>0.99763720029634606</v>
       </c>
       <c r="E218">
-        <v>0.073077070659665316</v>
+        <v>7.3077070659665316E-2</v>
       </c>
       <c r="F218">
         <v>0.76645312860782522</v>
@@ -8609,7 +8626,7 @@
         <v>0.963508691147692</v>
       </c>
       <c r="I218">
-        <v>0.055783324921117025</v>
+        <v>5.5783324921117025E-2</v>
       </c>
       <c r="J218">
         <v>0.7139452250306374</v>
@@ -8621,9 +8638,9 @@
         <v>0.97245466504128875</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>0.052998318058559021</v>
+        <v>5.2998318058559021E-2</v>
       </c>
       <c r="B219">
         <v>0.70928474130129704</v>
@@ -8647,7 +8664,7 @@
         <v>0.93574759260579454</v>
       </c>
       <c r="I219">
-        <v>0.09654924761504928</v>
+        <v>9.654924761504928E-2</v>
       </c>
       <c r="J219">
         <v>0.70754370210515916</v>
@@ -8659,9 +8676,9 @@
         <v>0.95422496472851737</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>0.094148582571314615</v>
+        <v>9.4148582571314615E-2</v>
       </c>
       <c r="B220">
         <v>0.80999079893560177</v>
@@ -8685,7 +8702,7 @@
         <v>0.9439646639977548</v>
       </c>
       <c r="I220">
-        <v>0.072418122996469353</v>
+        <v>7.2418122996469353E-2</v>
       </c>
       <c r="J220">
         <v>0.67600031996644172</v>
@@ -8697,9 +8714,9 @@
         <v>0.9658667316660019</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>0.069039403589398779</v>
+        <v>6.9039403589398779E-2</v>
       </c>
       <c r="B221">
         <v>0.75867364897108081</v>
@@ -8723,7 +8740,7 @@
         <v>0.93240162648480762</v>
       </c>
       <c r="I221">
-        <v>0.097736861160163446</v>
+        <v>9.7736861160163446E-2</v>
       </c>
       <c r="J221">
         <v>0.57023545642887297</v>
@@ -8735,9 +8752,9 @@
         <v>0.96070785584280927</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>0.080203852722134455</v>
+        <v>8.0203852722134455E-2</v>
       </c>
       <c r="B222">
         <v>0.76931817306131745</v>
@@ -8749,7 +8766,7 @@
         <v>0.96029596033427533</v>
       </c>
       <c r="E222">
-        <v>0.099656091161104951</v>
+        <v>9.9656091161104951E-2</v>
       </c>
       <c r="F222">
         <v>0.7867865607373119</v>
@@ -8761,7 +8778,7 @@
         <v>0.95097081546702789</v>
       </c>
       <c r="I222">
-        <v>0.080789946140035901</v>
+        <v>8.0789946140035901E-2</v>
       </c>
       <c r="J222">
         <v>0.64937371196723792</v>
@@ -8773,9 +8790,9 @@
         <v>0.96113313639696263</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>0.0016644663885515129</v>
+        <v>1.6644663885515129E-3</v>
       </c>
       <c r="B223">
         <v>0.20958773037208334</v>
@@ -8811,7 +8828,7 @@
         <v>0.87680368238545359</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>0.13671638391169968</v>
       </c>
@@ -8849,7 +8866,7 @@
         <v>0.94551811374739636</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>0.12836226176471954</v>
       </c>
@@ -8887,9 +8904,9 @@
         <v>0.90081407225210897</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>0.062107962982406145</v>
+        <v>6.2107962982406145E-2</v>
       </c>
       <c r="B226">
         <v>0.56457816034323338</v>
@@ -8925,9 +8942,9 @@
         <v>0.84329343592666484</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>0.058435079480203073</v>
+        <v>5.8435079480203073E-2</v>
       </c>
       <c r="B227">
         <v>0.51611765663406173</v>
@@ -8963,9 +8980,9 @@
         <v>0.83952211701441337</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>0.0030156291495925798</v>
+        <v>3.0156291495925798E-3</v>
       </c>
       <c r="B228">
         <v>0.35529123389759787</v>
@@ -9001,9 +9018,9 @@
         <v>0.88730895844554036</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>0.021716505932144591</v>
+        <v>2.1716505932144591E-2</v>
       </c>
       <c r="B229">
         <v>0.48221594086402148</v>
@@ -9039,7 +9056,7 @@
         <v>0.89618260074664557</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>0.10193201755527673</v>
       </c>
@@ -9077,9 +9094,9 @@
         <v>0.94824004706396847</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>0.093924254633360196</v>
+        <v>9.3924254633360196E-2</v>
       </c>
       <c r="B231">
         <v>0.8121093281030336</v>
@@ -9091,7 +9108,7 @@
         <v>0.95303787268331996</v>
       </c>
       <c r="E231">
-        <v>0.080225624496373882</v>
+        <v>8.0225624496373882E-2</v>
       </c>
       <c r="F231">
         <v>0.76580112180885795</v>
@@ -9103,7 +9120,7 @@
         <v>0.96044587698092931</v>
       </c>
       <c r="I231">
-        <v>0.071993553585817896</v>
+        <v>7.1993553585817896E-2</v>
       </c>
       <c r="J231">
         <v>0.63507060453673658</v>
@@ -9115,7 +9132,7 @@
         <v>0.96518076819768994</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>0.10057522701873721</v>
       </c>
@@ -9153,9 +9170,9 @@
         <v>0.95210956889419984</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>0.061163736633079314</v>
+        <v>6.1163736633079314E-2</v>
       </c>
       <c r="B233">
         <v>0.72095705081136185</v>
@@ -9191,7 +9208,7 @@
         <v>0.93605404614431353</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>0.11209735406256231</v>
       </c>
@@ -9229,7 +9246,7 @@
         <v>0.94797017907459669</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0.1668477533652688</v>
       </c>
@@ -9267,9 +9284,9 @@
         <v>0.87324894514767926</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>0.096514185240850245</v>
+        <v>9.6514185240850245E-2</v>
       </c>
       <c r="B236">
         <v>0.7574814853656</v>
@@ -9305,9 +9322,9 @@
         <v>0.92556544631234028</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>0.093052843208603186</v>
+        <v>9.3052843208603186E-2</v>
       </c>
       <c r="B237">
         <v>0.81202752574694215</v>
@@ -9319,7 +9336,7 @@
         <v>0.95372096188985289</v>
       </c>
       <c r="E237">
-        <v>0.082152262577290969</v>
+        <v>8.2152262577290969E-2</v>
       </c>
       <c r="F237">
         <v>0.75607724730071979</v>
@@ -9331,7 +9348,7 @@
         <v>0.95966820070611203</v>
       </c>
       <c r="I237">
-        <v>0.051523829967696166</v>
+        <v>5.1523829967696166E-2</v>
       </c>
       <c r="J237">
         <v>0.5561476820482395</v>
@@ -9343,7 +9360,7 @@
         <v>0.97569446262371362</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0.1264966925176727</v>
       </c>
@@ -9381,9 +9398,9 @@
         <v>0.93413291487332673</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>0.063901116315103701</v>
+        <v>6.3901116315103701E-2</v>
       </c>
       <c r="B239">
         <v>0.76518819962796158</v>
@@ -9407,7 +9424,7 @@
         <v>0.94405453627730651</v>
       </c>
       <c r="I239">
-        <v>0.062562946790153881</v>
+        <v>6.2562946790153881E-2</v>
       </c>
       <c r="J239">
         <v>0.60090487896155576</v>
@@ -9419,7 +9436,7 @@
         <v>0.97292143536289044</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>0.10597320585783759</v>
       </c>
@@ -9433,7 +9450,7 @@
         <v>0.94701339707108123</v>
       </c>
       <c r="E240">
-        <v>0.089385567374516348</v>
+        <v>8.9385567374516348E-2</v>
       </c>
       <c r="F240">
         <v>0.75949378495955366</v>
@@ -9445,7 +9462,7 @@
         <v>0.95620237838951805</v>
       </c>
       <c r="I240">
-        <v>0.056342770715228058</v>
+        <v>5.6342770715228058E-2</v>
       </c>
       <c r="J240">
         <v>0.58120624760674056</v>
@@ -9457,9 +9474,9 @@
         <v>0.97357753869988972</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>0.013139084410978337</v>
+        <v>1.3139084410978337E-2</v>
       </c>
       <c r="B241">
         <v>0.48432638880546708</v>
@@ -9495,9 +9512,9 @@
         <v>0.89961271469537962</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>0.0047950502706883219</v>
+        <v>4.7950502706883219E-3</v>
       </c>
       <c r="B242">
         <v>0.41696747859619343</v>
@@ -9533,9 +9550,9 @@
         <v>0.84340237300284826</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>0.043186396018718418</v>
+        <v>4.3186396018718418E-2</v>
       </c>
       <c r="B243">
         <v>0.64464718092619799</v>
@@ -9571,9 +9588,9 @@
         <v>0.89467779008918791</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>0.0030341854269619506</v>
+        <v>3.0341854269619506E-3</v>
       </c>
       <c r="B244">
         <v>0.4290542152821899</v>
@@ -9609,9 +9626,9 @@
         <v>0.94602390200584341</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>0.0078593062201790728</v>
+        <v>7.8593062201790728E-3</v>
       </c>
       <c r="B245">
         <v>0.44021295005000999</v>
@@ -9647,9 +9664,9 @@
         <v>0.8798109932699244</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>0.012952832139567237</v>
+        <v>1.2952832139567237E-2</v>
       </c>
       <c r="B246">
         <v>0.49263924715009005</v>
@@ -9685,9 +9702,9 @@
         <v>0.84247175380219208</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>0.0029618209112670913</v>
+        <v>2.9618209112670913E-3</v>
       </c>
       <c r="B247">
         <v>0.35874712344572357</v>
@@ -9723,9 +9740,9 @@
         <v>0.90035667258047247</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>0.0071666903869570028</v>
+        <v>7.1666903869570028E-3</v>
       </c>
       <c r="B248">
         <v>0.61137938905764555</v>
@@ -9761,9 +9778,9 @@
         <v>0.9141857878562657</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>0.0034078914300075397</v>
+        <v>3.4078914300075397E-3</v>
       </c>
       <c r="B249">
         <v>0.37474819026163647</v>
@@ -9799,9 +9816,9 @@
         <v>0.92733573483008014</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>0.0070491188601424816</v>
+        <v>7.0491188601424816E-3</v>
       </c>
       <c r="B250">
         <v>0.4860665049786137</v>
@@ -9837,9 +9854,9 @@
         <v>0.92848991702124184</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>0.011880207903638314</v>
+        <v>1.1880207903638314E-2</v>
       </c>
       <c r="B251">
         <v>0.45410187775145133</v>
@@ -9875,9 +9892,9 @@
         <v>0.85881802931551299</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>0.0051585791464600628</v>
+        <v>5.1585791464600628E-3</v>
       </c>
       <c r="B252">
         <v>0.40296409971800506</v>
@@ -9913,9 +9930,9 @@
         <v>0.7954417372203737</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>0.0073897683133917584</v>
+        <v>7.3897683133917584E-3</v>
       </c>
       <c r="B253">
         <v>0.48033937666132759</v>
@@ -9951,9 +9968,9 @@
         <v>0.9079005068347874</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>0.024183048662584597</v>
+        <v>2.4183048662584597E-2</v>
       </c>
       <c r="B254">
         <v>0.55148926853159386</v>
@@ -9989,9 +10006,9 @@
         <v>0.88623231997708307</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>0.011883630555874016</v>
+        <v>1.1883630555874016E-2</v>
       </c>
       <c r="B255">
         <v>0.48622047164905219</v>
@@ -10027,9 +10044,9 @@
         <v>0.82411884157663018</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>0.0036796018066181215</v>
+        <v>3.6796018066181215E-3</v>
       </c>
       <c r="B256">
         <v>0.36005224829091159</v>
@@ -10065,9 +10082,9 @@
         <v>0.81799889390727254</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>0.0063766781354366066</v>
+        <v>6.3766781354366066E-3</v>
       </c>
       <c r="B257">
         <v>0.4431393153172678</v>
@@ -10103,9 +10120,9 @@
         <v>0.92386723558493355</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>0.00063942914154771708</v>
+        <v>6.3942914154771708E-4</v>
       </c>
       <c r="B258">
         <v>0.44219741401287388</v>
@@ -10117,7 +10134,7 @@
         <v>0.99968028542922605</v>
       </c>
       <c r="E258">
-        <v>0.063355734087046964</v>
+        <v>6.3355734087046964E-2</v>
       </c>
       <c r="F258">
         <v>0.85124125363581615</v>
@@ -10129,7 +10146,7 @@
         <v>0.96832213295647662</v>
       </c>
       <c r="I258">
-        <v>0.088721415402529341</v>
+        <v>8.8721415402529341E-2</v>
       </c>
       <c r="J258">
         <v>0.83773528262373187</v>
@@ -10141,9 +10158,9 @@
         <v>0.95563929229873545</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>0.0028193210566570572</v>
+        <v>2.8193210566570572E-3</v>
       </c>
       <c r="B259">
         <v>0.41816372862651224</v>
@@ -10179,9 +10196,9 @@
         <v>0.86655115608636823</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>0.0015921690296667749</v>
+        <v>1.5921690296667749E-3</v>
       </c>
       <c r="B260">
         <v>0.46875460678884479</v>
@@ -10193,7 +10210,7 @@
         <v>0.99920391548516652</v>
       </c>
       <c r="E260">
-        <v>0.091489591976622528</v>
+        <v>9.1489591976622528E-2</v>
       </c>
       <c r="F260">
         <v>0.8443191046475923</v>
@@ -10217,9 +10234,9 @@
         <v>0.92956976963254245</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>0.013031508106454573</v>
+        <v>1.3031508106454573E-2</v>
       </c>
       <c r="B261">
         <v>0.78272937451498981</v>
@@ -10255,9 +10272,9 @@
         <v>0.9226180671576818</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>0.015035523760355975</v>
+        <v>1.5035523760355975E-2</v>
       </c>
       <c r="B262">
         <v>0.6084572003277845</v>
@@ -10269,7 +10286,7 @@
         <v>0.99248223811982195</v>
       </c>
       <c r="E262">
-        <v>0.07203579418344519</v>
+        <v>7.203579418344519E-2</v>
       </c>
       <c r="F262">
         <v>0.76105986142503868</v>
@@ -10293,9 +10310,9 @@
         <v>0.93382828953298758</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>0.034990993456004746</v>
+        <v>3.4990993456004746E-2</v>
       </c>
       <c r="B263">
         <v>0.60376848316815412</v>
@@ -10307,7 +10324,7 @@
         <v>0.98250450327199768</v>
       </c>
       <c r="E263">
-        <v>0.091383359554917137</v>
+        <v>9.1383359554917137E-2</v>
       </c>
       <c r="F263">
         <v>0.750658505049839</v>
@@ -10331,9 +10348,9 @@
         <v>0.899488489104742</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>0.034578942071285819</v>
+        <v>3.4578942071285819E-2</v>
       </c>
       <c r="B264">
         <v>0.63337575263848378</v>
@@ -10345,7 +10362,7 @@
         <v>0.98271052896435707</v>
       </c>
       <c r="E264">
-        <v>0.072191629164210444</v>
+        <v>7.2191629164210444E-2</v>
       </c>
       <c r="F264">
         <v>0.75891184596394257</v>
@@ -10369,9 +10386,9 @@
         <v>0.91751057177866269</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>0.050175590513301588</v>
+        <v>5.0175590513301588E-2</v>
       </c>
       <c r="B265">
         <v>0.64582867132298116</v>
@@ -10383,7 +10400,7 @@
         <v>0.97491220474334916</v>
       </c>
       <c r="E265">
-        <v>0.082013671131869997</v>
+        <v>8.2013671131869997E-2</v>
       </c>
       <c r="F265">
         <v>0.76266500997618458</v>
@@ -10407,9 +10424,9 @@
         <v>0.90832702840207524</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0.053062841158049781</v>
+        <v>5.3062841158049781E-2</v>
       </c>
       <c r="B266">
         <v>0.84381659019621647</v>
@@ -10445,9 +10462,9 @@
         <v>0.83007011231999173</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>0.049308020637224607</v>
+        <v>4.9308020637224607E-2</v>
       </c>
       <c r="B267">
         <v>0.6412844423968328</v>
@@ -10459,7 +10476,7 @@
         <v>0.97534598968138775</v>
       </c>
       <c r="E267">
-        <v>0.077566838643538402</v>
+        <v>7.7566838643538402E-2</v>
       </c>
       <c r="F267">
         <v>0.77055509595873339</v>
@@ -10483,9 +10500,9 @@
         <v>0.91315966383870895</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>0.029694629281066545</v>
+        <v>2.9694629281066545E-2</v>
       </c>
       <c r="B268">
         <v>0.92373861510659505</v>
@@ -10497,7 +10514,7 @@
         <v>0.98515268535946676</v>
       </c>
       <c r="E268">
-        <v>0.07264152888606111</v>
+        <v>7.264152888606111E-2</v>
       </c>
       <c r="F268">
         <v>0.80839591398023813</v>
@@ -10509,7 +10526,7 @@
         <v>0.96371065532805666</v>
       </c>
       <c r="I268">
-        <v>0.060199299535478326</v>
+        <v>6.0199299535478326E-2</v>
       </c>
       <c r="J268">
         <v>0.72910378223376637</v>
@@ -10521,9 +10538,9 @@
         <v>0.96990035023226073</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>0.010589499319532986</v>
+        <v>1.0589499319532986E-2</v>
       </c>
       <c r="B269">
         <v>0.87271377773455749</v>
@@ -10535,7 +10552,7 @@
         <v>0.99470525034023349</v>
       </c>
       <c r="E269">
-        <v>0.067765919346751663</v>
+        <v>6.7765919346751663E-2</v>
       </c>
       <c r="F269">
         <v>0.8341316441019625</v>
@@ -10547,7 +10564,7 @@
         <v>0.96612850082372326</v>
       </c>
       <c r="I269">
-        <v>0.06380918272330062</v>
+        <v>6.380918272330062E-2</v>
       </c>
       <c r="J269">
         <v>0.78843093135220577</v>
@@ -10559,9 +10576,9 @@
         <v>0.96809540863834964</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>0.0042811133833776226</v>
+        <v>4.2811133833776226E-3</v>
       </c>
       <c r="B270">
         <v>0.83898129664257182</v>
@@ -10573,7 +10590,7 @@
         <v>0.99785944330831111</v>
       </c>
       <c r="E270">
-        <v>0.070780421498634616</v>
+        <v>7.0780421498634616E-2</v>
       </c>
       <c r="F270">
         <v>0.83561359726785722</v>
@@ -10585,7 +10602,7 @@
         <v>0.96461305478339332</v>
       </c>
       <c r="I270">
-        <v>0.058708563451341518</v>
+        <v>5.8708563451341518E-2</v>
       </c>
       <c r="J270">
         <v>0.77980846283313676</v>
@@ -10597,9 +10614,9 @@
         <v>0.97064571827432922</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>0.0018098800099106858</v>
+        <v>1.8098800099106858E-3</v>
       </c>
       <c r="B271">
         <v>0.80556947642653232</v>
@@ -10611,7 +10628,7 @@
         <v>0.99909505999504467</v>
       </c>
       <c r="E271">
-        <v>0.078407683141215462</v>
+        <v>7.8407683141215462E-2</v>
       </c>
       <c r="F271">
         <v>0.8410476993252064</v>
@@ -10623,7 +10640,7 @@
         <v>0.96079615842939237</v>
       </c>
       <c r="I271">
-        <v>0.027303939497622616</v>
+        <v>2.7303939497622616E-2</v>
       </c>
       <c r="J271">
         <v>0.75878495034557303</v>
@@ -10635,9 +10652,9 @@
         <v>0.98634803025118878</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>0.0024340378171084308</v>
+        <v>2.4340378171084308E-3</v>
       </c>
       <c r="B272">
         <v>0.81677523464524449</v>
@@ -10649,7 +10666,7 @@
         <v>0.9987829810914457</v>
       </c>
       <c r="E272">
-        <v>0.087136618235927443</v>
+        <v>8.7136618235927443E-2</v>
       </c>
       <c r="F272">
         <v>0.83460249778654083</v>
@@ -10661,7 +10678,7 @@
         <v>0.95650266348902935</v>
       </c>
       <c r="I272">
-        <v>0.05464971389167806</v>
+        <v>5.464971389167806E-2</v>
       </c>
       <c r="J272">
         <v>0.75327160889593736</v>
@@ -10673,9 +10690,9 @@
         <v>0.97267514305416092</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>0.059274529607406853</v>
+        <v>5.9274529607406853E-2</v>
       </c>
       <c r="B273">
         <v>0.82218465634129723</v>
@@ -10687,7 +10704,7 @@
         <v>0.97036273519629668</v>
       </c>
       <c r="E273">
-        <v>0.094460181172872359</v>
+        <v>9.4460181172872359E-2</v>
       </c>
       <c r="F273">
         <v>0.80531625242816829</v>
@@ -10699,7 +10716,7 @@
         <v>0.95301850933515442</v>
       </c>
       <c r="I273">
-        <v>0.080276354837118369</v>
+        <v>8.0276354837118369E-2</v>
       </c>
       <c r="J273">
         <v>0.74871835906811579</v>
@@ -10711,9 +10728,9 @@
         <v>0.95991028766624187</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>0.071079657435577814</v>
+        <v>7.1079657435577814E-2</v>
       </c>
       <c r="B274">
         <v>0.81804826941096764</v>
@@ -10725,7 +10742,7 @@
         <v>0.96446017128221107</v>
       </c>
       <c r="E274">
-        <v>0.086365487700537674</v>
+        <v>8.6365487700537674E-2</v>
       </c>
       <c r="F274">
         <v>0.78660574566944719</v>
@@ -10737,7 +10754,7 @@
         <v>0.95709060790697287</v>
       </c>
       <c r="I274">
-        <v>0.082257010789193868</v>
+        <v>8.2257010789193868E-2</v>
       </c>
       <c r="J274">
         <v>0.71623942294217902</v>
@@ -10749,9 +10766,9 @@
         <v>0.95893709902714108</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>0.018857334205029261</v>
+        <v>1.8857334205029261E-2</v>
       </c>
       <c r="B275">
         <v>0.94859062044820774</v>
@@ -10763,7 +10780,7 @@
         <v>0.99057133289748545</v>
       </c>
       <c r="E275">
-        <v>0.017712436018050486</v>
+        <v>1.7712436018050486E-2</v>
       </c>
       <c r="F275">
         <v>0.8181863804418894</v>
@@ -10775,7 +10792,7 @@
         <v>0.99114378199097464</v>
       </c>
       <c r="I275">
-        <v>0.01940905394415831</v>
+        <v>1.940905394415831E-2</v>
       </c>
       <c r="J275">
         <v>0.78165064871369605</v>
@@ -10787,9 +10804,9 @@
         <v>0.99029547302792076</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>0.026853039618997064</v>
+        <v>2.6853039618997064E-2</v>
       </c>
       <c r="B276">
         <v>0.94460744117303508</v>
@@ -10801,7 +10818,7 @@
         <v>0.9865734801905014</v>
       </c>
       <c r="E276">
-        <v>0.054587812034620549</v>
+        <v>5.4587812034620549E-2</v>
       </c>
       <c r="F276">
         <v>0.7470294465356323</v>
@@ -10813,7 +10830,7 @@
         <v>0.97290981652683772</v>
       </c>
       <c r="I276">
-        <v>0.066115215051385262</v>
+        <v>6.6115215051385262E-2</v>
       </c>
       <c r="J276">
         <v>0.70085266715521199</v>
@@ -10825,9 +10842,9 @@
         <v>0.96698564358138828</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>0.0593921007895548</v>
+        <v>5.93921007895548E-2</v>
       </c>
       <c r="B277">
         <v>0.85180344515556883</v>
@@ -10839,7 +10856,7 @@
         <v>0.97030394960522259</v>
       </c>
       <c r="E277">
-        <v>0.08649394328756338</v>
+        <v>8.649394328756338E-2</v>
       </c>
       <c r="F277">
         <v>0.80767875981181603</v>
@@ -10851,7 +10868,7 @@
         <v>0.95675302835621812</v>
       </c>
       <c r="I277">
-        <v>0.074917672049393716</v>
+        <v>7.4917672049393716E-2</v>
       </c>
       <c r="J277">
         <v>0.72906424381091273</v>
@@ -10863,9 +10880,9 @@
         <v>0.96254116397530309</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>0.007704718913725277</v>
+        <v>7.704718913725277E-3</v>
       </c>
       <c r="B278">
         <v>0.63284946724406388</v>
@@ -10901,9 +10918,9 @@
         <v>0.86035876797012401</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>0.0003863925426239274</v>
+        <v>3.863925426239274E-4</v>
       </c>
       <c r="B279">
         <v>0.29443519010170832</v>
@@ -10939,9 +10956,9 @@
         <v>0.88361132130149889</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>0.0042822435460472272</v>
+        <v>4.2822435460472272E-3</v>
       </c>
       <c r="B280">
         <v>0.60208675213438267</v>
@@ -10977,9 +10994,9 @@
         <v>0.89931192794178483</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>0.013031508106454573</v>
+        <v>1.3031508106454573E-2</v>
       </c>
       <c r="B281">
         <v>0.78272937451498981</v>
@@ -11015,9 +11032,9 @@
         <v>0.9226180671576818</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>0.015035523760355975</v>
+        <v>1.5035523760355975E-2</v>
       </c>
       <c r="B282">
         <v>0.6084572003277845</v>
@@ -11029,7 +11046,7 @@
         <v>0.99248223811982195</v>
       </c>
       <c r="E282">
-        <v>0.07203579418344519</v>
+        <v>7.203579418344519E-2</v>
       </c>
       <c r="F282">
         <v>0.76105986142503868</v>
@@ -11053,9 +11070,9 @@
         <v>0.93382828953298758</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>0.034990993456004746</v>
+        <v>3.4990993456004746E-2</v>
       </c>
       <c r="B283">
         <v>0.60376848316815412</v>
@@ -11067,7 +11084,7 @@
         <v>0.98250450327199768</v>
       </c>
       <c r="E283">
-        <v>0.091383359554917137</v>
+        <v>9.1383359554917137E-2</v>
       </c>
       <c r="F283">
         <v>0.750658505049839</v>
@@ -11091,9 +11108,9 @@
         <v>0.899488489104742</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>0.034578942071285819</v>
+        <v>3.4578942071285819E-2</v>
       </c>
       <c r="B284">
         <v>0.63337575263848378</v>
@@ -11105,7 +11122,7 @@
         <v>0.98271052896435707</v>
       </c>
       <c r="E284">
-        <v>0.072191629164210444</v>
+        <v>7.2191629164210444E-2</v>
       </c>
       <c r="F284">
         <v>0.75891184596394257</v>
@@ -11129,9 +11146,9 @@
         <v>0.91751057177866269</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>0.050175590513301588</v>
+        <v>5.0175590513301588E-2</v>
       </c>
       <c r="B285">
         <v>0.64582867132298116</v>
@@ -11143,7 +11160,7 @@
         <v>0.97491220474334916</v>
       </c>
       <c r="E285">
-        <v>0.082013671131869997</v>
+        <v>8.2013671131869997E-2</v>
       </c>
       <c r="F285">
         <v>0.76266500997618458</v>
@@ -11167,9 +11184,9 @@
         <v>0.90832702840207524</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>0.053062841158049781</v>
+        <v>5.3062841158049781E-2</v>
       </c>
       <c r="B286">
         <v>0.84381659019621647</v>
@@ -11205,9 +11222,9 @@
         <v>0.83007011231999173</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>0.049308020637224607</v>
+        <v>4.9308020637224607E-2</v>
       </c>
       <c r="B287">
         <v>0.6412844423968328</v>
@@ -11219,7 +11236,7 @@
         <v>0.97534598968138775</v>
       </c>
       <c r="E287">
-        <v>0.077566838643538402</v>
+        <v>7.7566838643538402E-2</v>
       </c>
       <c r="F287">
         <v>0.77055509595873339</v>
@@ -11243,9 +11260,9 @@
         <v>0.91315966383870895</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>0.029694629281066545</v>
+        <v>2.9694629281066545E-2</v>
       </c>
       <c r="B288">
         <v>0.92373861510659505</v>
@@ -11257,7 +11274,7 @@
         <v>0.98515268535946676</v>
       </c>
       <c r="E288">
-        <v>0.07264152888606111</v>
+        <v>7.264152888606111E-2</v>
       </c>
       <c r="F288">
         <v>0.80839591398023813</v>
@@ -11269,7 +11286,7 @@
         <v>0.96371065532805666</v>
       </c>
       <c r="I288">
-        <v>0.060199299535478326</v>
+        <v>6.0199299535478326E-2</v>
       </c>
       <c r="J288">
         <v>0.72910378223376637</v>
@@ -11281,9 +11298,9 @@
         <v>0.96990035023226073</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>0.010589499319532986</v>
+        <v>1.0589499319532986E-2</v>
       </c>
       <c r="B289">
         <v>0.87271377773455749</v>
@@ -11295,7 +11312,7 @@
         <v>0.99470525034023349</v>
       </c>
       <c r="E289">
-        <v>0.067765919346751663</v>
+        <v>6.7765919346751663E-2</v>
       </c>
       <c r="F289">
         <v>0.8341316441019625</v>
@@ -11307,7 +11324,7 @@
         <v>0.96612850082372326</v>
       </c>
       <c r="I289">
-        <v>0.06380918272330062</v>
+        <v>6.380918272330062E-2</v>
       </c>
       <c r="J289">
         <v>0.78843093135220577</v>
@@ -11319,9 +11336,9 @@
         <v>0.96809540863834964</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>0.0042811133833776226</v>
+        <v>4.2811133833776226E-3</v>
       </c>
       <c r="B290">
         <v>0.83898129664257182</v>
@@ -11333,7 +11350,7 @@
         <v>0.99785944330831111</v>
       </c>
       <c r="E290">
-        <v>0.070780421498634616</v>
+        <v>7.0780421498634616E-2</v>
       </c>
       <c r="F290">
         <v>0.83561359726785722</v>
@@ -11345,7 +11362,7 @@
         <v>0.96461305478339332</v>
       </c>
       <c r="I290">
-        <v>0.058708563451341518</v>
+        <v>5.8708563451341518E-2</v>
       </c>
       <c r="J290">
         <v>0.77980846283313676</v>
@@ -11357,9 +11374,9 @@
         <v>0.97064571827432922</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>0.0018098800099106858</v>
+        <v>1.8098800099106858E-3</v>
       </c>
       <c r="B291">
         <v>0.80556947642653232</v>
@@ -11371,7 +11388,7 @@
         <v>0.99909505999504467</v>
       </c>
       <c r="E291">
-        <v>0.078407683141215462</v>
+        <v>7.8407683141215462E-2</v>
       </c>
       <c r="F291">
         <v>0.8410476993252064</v>
@@ -11383,7 +11400,7 @@
         <v>0.96079615842939237</v>
       </c>
       <c r="I291">
-        <v>0.027303939497622616</v>
+        <v>2.7303939497622616E-2</v>
       </c>
       <c r="J291">
         <v>0.75878495034557303</v>
@@ -11395,9 +11412,9 @@
         <v>0.98634803025118878</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>0.0024340378171084308</v>
+        <v>2.4340378171084308E-3</v>
       </c>
       <c r="B292">
         <v>0.81677523464524449</v>
@@ -11409,7 +11426,7 @@
         <v>0.9987829810914457</v>
       </c>
       <c r="E292">
-        <v>0.087136618235927443</v>
+        <v>8.7136618235927443E-2</v>
       </c>
       <c r="F292">
         <v>0.83460249778654083</v>
@@ -11421,7 +11438,7 @@
         <v>0.95650266348902935</v>
       </c>
       <c r="I292">
-        <v>0.05464971389167806</v>
+        <v>5.464971389167806E-2</v>
       </c>
       <c r="J292">
         <v>0.75327160889593736</v>
@@ -11433,9 +11450,9 @@
         <v>0.97267514305416092</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>0.059274529607406853</v>
+        <v>5.9274529607406853E-2</v>
       </c>
       <c r="B293">
         <v>0.82218465634129723</v>
@@ -11447,7 +11464,7 @@
         <v>0.97036273519629668</v>
       </c>
       <c r="E293">
-        <v>0.094460181172872359</v>
+        <v>9.4460181172872359E-2</v>
       </c>
       <c r="F293">
         <v>0.80531625242816829</v>
@@ -11459,7 +11476,7 @@
         <v>0.95301850933515442</v>
       </c>
       <c r="I293">
-        <v>0.080276354837118369</v>
+        <v>8.0276354837118369E-2</v>
       </c>
       <c r="J293">
         <v>0.74871835906811579</v>
@@ -11471,9 +11488,9 @@
         <v>0.95991028766624187</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>0.071079657435577814</v>
+        <v>7.1079657435577814E-2</v>
       </c>
       <c r="B294">
         <v>0.81804826941096764</v>
@@ -11485,7 +11502,7 @@
         <v>0.96446017128221107</v>
       </c>
       <c r="E294">
-        <v>0.086365487700537674</v>
+        <v>8.6365487700537674E-2</v>
       </c>
       <c r="F294">
         <v>0.78660574566944719</v>
@@ -11497,7 +11514,7 @@
         <v>0.95709060790697287</v>
       </c>
       <c r="I294">
-        <v>0.082257010789193868</v>
+        <v>8.2257010789193868E-2</v>
       </c>
       <c r="J294">
         <v>0.71623942294217902</v>
@@ -11509,9 +11526,9 @@
         <v>0.95893709902714108</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>0.018857334205029261</v>
+        <v>1.8857334205029261E-2</v>
       </c>
       <c r="B295">
         <v>0.94859062044820774</v>
@@ -11523,7 +11540,7 @@
         <v>0.99057133289748545</v>
       </c>
       <c r="E295">
-        <v>0.017712436018050486</v>
+        <v>1.7712436018050486E-2</v>
       </c>
       <c r="F295">
         <v>0.8181863804418894</v>
@@ -11535,7 +11552,7 @@
         <v>0.99114378199097464</v>
       </c>
       <c r="I295">
-        <v>0.01940905394415831</v>
+        <v>1.940905394415831E-2</v>
       </c>
       <c r="J295">
         <v>0.78165064871369605</v>
@@ -11547,9 +11564,9 @@
         <v>0.99029547302792076</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>0.026853039618997064</v>
+        <v>2.6853039618997064E-2</v>
       </c>
       <c r="B296">
         <v>0.94460744117303508</v>
@@ -11561,7 +11578,7 @@
         <v>0.9865734801905014</v>
       </c>
       <c r="E296">
-        <v>0.054587812034620549</v>
+        <v>5.4587812034620549E-2</v>
       </c>
       <c r="F296">
         <v>0.7470294465356323</v>
@@ -11573,7 +11590,7 @@
         <v>0.97290981652683772</v>
       </c>
       <c r="I296">
-        <v>0.066115215051385262</v>
+        <v>6.6115215051385262E-2</v>
       </c>
       <c r="J296">
         <v>0.70085266715521199</v>
@@ -11585,9 +11602,9 @@
         <v>0.96698564358138828</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>0.0593921007895548</v>
+        <v>5.93921007895548E-2</v>
       </c>
       <c r="B297">
         <v>0.85180344515556883</v>
@@ -11599,7 +11616,7 @@
         <v>0.97030394960522259</v>
       </c>
       <c r="E297">
-        <v>0.08649394328756338</v>
+        <v>8.649394328756338E-2</v>
       </c>
       <c r="F297">
         <v>0.80767875981181603</v>
@@ -11611,7 +11628,7 @@
         <v>0.95675302835621812</v>
       </c>
       <c r="I297">
-        <v>0.074917672049393716</v>
+        <v>7.4917672049393716E-2</v>
       </c>
       <c r="J297">
         <v>0.72906424381091273</v>
@@ -11623,9 +11640,9 @@
         <v>0.96254116397530309</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>0.007704718913725277</v>
+        <v>7.704718913725277E-3</v>
       </c>
       <c r="B298">
         <v>0.63284946724406388</v>
@@ -11661,9 +11678,9 @@
         <v>0.86035876797012401</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>0.0003863925426239274</v>
+        <v>3.863925426239274E-4</v>
       </c>
       <c r="B299">
         <v>0.29443519010170832</v>
@@ -11699,9 +11716,9 @@
         <v>0.88361132130149889</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>0.0042822435460472272</v>
+        <v>4.2822435460472272E-3</v>
       </c>
       <c r="B300">
         <v>0.60208675213438267</v>
@@ -11737,9 +11754,9 @@
         <v>0.89931192794178483</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>2.4742905744993426e-05</v>
+        <v>2.4742905744993426E-5</v>
       </c>
       <c r="B301">
         <v>0.55554318375830469</v>
@@ -11751,7 +11768,7 @@
         <v>0.99998762854712764</v>
       </c>
       <c r="E301">
-        <v>0.027152246191912158</v>
+        <v>2.7152246191912158E-2</v>
       </c>
       <c r="F301">
         <v>0.78527420982877183</v>
@@ -11763,7 +11780,7 @@
         <v>0.98642387690404409</v>
       </c>
       <c r="I301">
-        <v>0.087419778860279906</v>
+        <v>8.7419778860279906E-2</v>
       </c>
       <c r="J301">
         <v>0.80498586159451224</v>
@@ -11775,9 +11792,9 @@
         <v>0.95633134874610182</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>0.0035173584684737428</v>
+        <v>3.5173584684737428E-3</v>
       </c>
       <c r="B302">
         <v>0.71790179525768405</v>
@@ -11789,7 +11806,7 @@
         <v>0.9985732685439962</v>
       </c>
       <c r="E302">
-        <v>0.037431063755049468</v>
+        <v>3.7431063755049468E-2</v>
       </c>
       <c r="F302">
         <v>0.90796129505144918</v>
@@ -11801,7 +11818,7 @@
         <v>0.98128446812247527</v>
       </c>
       <c r="I302">
-        <v>0.045777179322053746</v>
+        <v>4.5777179322053746E-2</v>
       </c>
       <c r="J302">
         <v>0.76513861862326749</v>
@@ -11813,9 +11830,9 @@
         <v>0.97722693831352569</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>0.0052406147644242888</v>
+        <v>5.2406147644242888E-3</v>
       </c>
       <c r="B303">
         <v>0.66020239772385392</v>
@@ -11827,7 +11844,7 @@
         <v>0.99737969261778792</v>
       </c>
       <c r="E303">
-        <v>0.010229276895943563</v>
+        <v>1.0229276895943563E-2</v>
       </c>
       <c r="F303">
         <v>0.70894132261316056</v>
@@ -11839,7 +11856,7 @@
         <v>0.99488536155202822</v>
       </c>
       <c r="I303">
-        <v>0.074508207841541177</v>
+        <v>7.4508207841541177E-2</v>
       </c>
       <c r="J303">
         <v>0.70866316585054234</v>
@@ -11851,9 +11868,9 @@
         <v>0.96330826727652119</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>0.00033958659299436033</v>
+        <v>3.3958659299436033E-4</v>
       </c>
       <c r="B304">
         <v>0.66548524343867066</v>
@@ -11865,7 +11882,7 @@
         <v>0.99983020670350287</v>
       </c>
       <c r="E304">
-        <v>0.0048906816804141044</v>
+        <v>4.8906816804141044E-3</v>
       </c>
       <c r="F304">
         <v>0.78461059293002022</v>
@@ -11877,7 +11894,7 @@
         <v>0.9975546591597928</v>
       </c>
       <c r="I304">
-        <v>0.027820710973724884</v>
+        <v>2.7820710973724884E-2</v>
       </c>
       <c r="J304">
         <v>0.76969595779509403</v>
@@ -11889,9 +11906,9 @@
         <v>0.9860981077304084</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>0.022599220036886344</v>
+        <v>2.2599220036886344E-2</v>
       </c>
       <c r="B305">
         <v>0.8941359495743546</v>
@@ -11903,7 +11920,7 @@
         <v>0.98870038998155674</v>
       </c>
       <c r="E305">
-        <v>0.02063664137183404</v>
+        <v>2.063664137183404E-2</v>
       </c>
       <c r="F305">
         <v>0.88808747179904024</v>
@@ -11915,7 +11932,7 @@
         <v>0.98968167931408291</v>
       </c>
       <c r="I305">
-        <v>0.026152698193695534</v>
+        <v>2.6152698193695534E-2</v>
       </c>
       <c r="J305">
         <v>0.75047757494945166</v>
@@ -11927,9 +11944,9 @@
         <v>0.98696870292415773</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>0.0002038106938338773</v>
+        <v>2.038106938338773E-4</v>
       </c>
       <c r="B306">
         <v>0.73124133956634474</v>
@@ -11941,7 +11958,7 @@
         <v>0.99989809465308299</v>
       </c>
       <c r="E306">
-        <v>0.004214918376647823</v>
+        <v>4.214918376647823E-3</v>
       </c>
       <c r="F306">
         <v>0.8458838243033906</v>
@@ -11953,7 +11970,7 @@
         <v>0.99789254081167622</v>
       </c>
       <c r="I306">
-        <v>0.02611324514746553</v>
+        <v>2.611324514746553E-2</v>
       </c>
       <c r="J306">
         <v>0.82833006893904293</v>
@@ -11965,9 +11982,9 @@
         <v>0.98694337742626725</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>0.0014324048425573164</v>
+        <v>1.4324048425573164E-3</v>
       </c>
       <c r="B307">
         <v>0.9358141384480253</v>
@@ -11979,7 +11996,7 @@
         <v>0.99928379757872143</v>
       </c>
       <c r="E307">
-        <v>0.0048279354145173833</v>
+        <v>4.8279354145173833E-3</v>
       </c>
       <c r="F307">
         <v>0.8779555148725271</v>
@@ -11991,7 +12008,7 @@
         <v>0.99758603229274101</v>
       </c>
       <c r="I307">
-        <v>0.025103639499714329</v>
+        <v>2.5103639499714329E-2</v>
       </c>
       <c r="J307">
         <v>0.85466848131780315</v>
@@ -12003,10 +12020,13 @@
         <v>0.9874481802501428</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>0</v>
       </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
       <c r="C308">
         <v>1</v>
       </c>
@@ -12014,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="E308">
-        <v>0.046553365652939958</v>
+        <v>4.6553365652939958E-2</v>
       </c>
       <c r="F308">
         <v>0.72348995604947786</v>
@@ -12038,12 +12058,12 @@
         <v>0.92923671983959355</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>0.00011455409817286213</v>
+        <v>1.1455409817286213E-4</v>
       </c>
       <c r="B309">
-        <v>-5.7280329934700431e-05</v>
+        <v>-5.7280329934700431E-5</v>
       </c>
       <c r="C309">
         <v>0.99977091148761632</v>
@@ -12052,7 +12072,7 @@
         <v>0.99994272295091369</v>
       </c>
       <c r="E309">
-        <v>0.0025812856788284934</v>
+        <v>2.5812856788284934E-3</v>
       </c>
       <c r="F309">
         <v>0.79276090948077083</v>
@@ -12064,7 +12084,7 @@
         <v>0.99870935716058584</v>
       </c>
       <c r="I309">
-        <v>0.020115699639154591</v>
+        <v>2.0115699639154591E-2</v>
       </c>
       <c r="J309">
         <v>0.84551484899723295</v>
@@ -12076,9 +12096,9 @@
         <v>0.98994215018042264</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>0.00063935255437531609</v>
+        <v>6.3935255437531609E-4</v>
       </c>
       <c r="B310">
         <v>0.66350980667589921</v>
@@ -12090,7 +12110,7 @@
         <v>0.99968032372281246</v>
       </c>
       <c r="E310">
-        <v>0.0015336368234699039</v>
+        <v>1.5336368234699039E-3</v>
       </c>
       <c r="F310">
         <v>0.70083649063853837</v>
@@ -12102,7 +12122,7 @@
         <v>0.99923318158826502</v>
       </c>
       <c r="I310">
-        <v>0.016768841679312089</v>
+        <v>1.6768841679312089E-2</v>
       </c>
       <c r="J310">
         <v>0.8410233772813297</v>
@@ -12114,9 +12134,9 @@
         <v>0.99161557916034393</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>0.0069876156844041254</v>
+        <v>6.9876156844041254E-3</v>
       </c>
       <c r="B311">
         <v>0.85070426725558623</v>
@@ -12128,7 +12148,7 @@
         <v>0.99650619215779801</v>
       </c>
       <c r="E311">
-        <v>0.0084021260122895784</v>
+        <v>8.4021260122895784E-3</v>
       </c>
       <c r="F311">
         <v>0.83789687676816049</v>
@@ -12140,7 +12160,7 @@
         <v>0.99579893699385524</v>
       </c>
       <c r="I311">
-        <v>0.026869162694821848</v>
+        <v>2.6869162694821848E-2</v>
       </c>
       <c r="J311">
         <v>0.81733473507975629</v>
@@ -12152,9 +12172,9 @@
         <v>0.98656541865258918</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>0.0036188850768882463</v>
+        <v>3.6188850768882463E-3</v>
       </c>
       <c r="B312">
         <v>0.79099629511309066</v>
@@ -12166,7 +12186,7 @@
         <v>0.99819055746155583</v>
       </c>
       <c r="E312">
-        <v>0.014193413559499138</v>
+        <v>1.4193413559499138E-2</v>
       </c>
       <c r="F312">
         <v>0.82737545780642896</v>
@@ -12178,7 +12198,7 @@
         <v>0.99290329322025039</v>
       </c>
       <c r="I312">
-        <v>0.033611396527402866</v>
+        <v>3.3611396527402866E-2</v>
       </c>
       <c r="J312">
         <v>0.78885708400115007</v>
@@ -12190,9 +12210,9 @@
         <v>0.98321287798308399</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>0.00023662438414278589</v>
+        <v>2.3662438414278589E-4</v>
       </c>
       <c r="B313">
         <v>0.61497519357593022</v>
@@ -12204,7 +12224,7 @@
         <v>0.99988168780792852</v>
       </c>
       <c r="E313">
-        <v>0.0057578600141411232</v>
+        <v>5.7578600141411232E-3</v>
       </c>
       <c r="F313">
         <v>0.81588159089614876</v>
@@ -12216,7 +12236,7 @@
         <v>0.99712106999292938</v>
       </c>
       <c r="I313">
-        <v>0.01381717385976625</v>
+        <v>1.381717385976625E-2</v>
       </c>
       <c r="J313">
         <v>0.75357980770415445</v>
@@ -12228,9 +12248,9 @@
         <v>0.99310268089793319</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>0.00015482741791622491</v>
+        <v>1.5482741791622491E-4</v>
       </c>
       <c r="B314">
         <v>0.41017898638427414</v>
@@ -12242,7 +12262,7 @@
         <v>0.9999225862910418</v>
       </c>
       <c r="E314">
-        <v>0.0046313592837549013</v>
+        <v>4.6313592837549013E-3</v>
       </c>
       <c r="F314">
         <v>0.82873859174574704</v>
@@ -12254,7 +12274,7 @@
         <v>0.9976843203581226</v>
       </c>
       <c r="I314">
-        <v>0.033462917150502342</v>
+        <v>3.3462917150502342E-2</v>
       </c>
       <c r="J314">
         <v>0.84492636770786467</v>
@@ -12266,9 +12286,9 @@
         <v>0.98326854142474884</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>0.00017668638167253126</v>
+        <v>1.7668638167253126E-4</v>
       </c>
       <c r="B315">
         <v>0.6740374476065869</v>
@@ -12280,7 +12300,7 @@
         <v>0.99991165680916372</v>
       </c>
       <c r="E315">
-        <v>0.0077502433181103536</v>
+        <v>7.7502433181103536E-3</v>
       </c>
       <c r="F315">
         <v>0.79721196235158953</v>
@@ -12292,7 +12312,7 @@
         <v>0.99612487834094476</v>
       </c>
       <c r="I315">
-        <v>0.025586583813730628</v>
+        <v>2.5586583813730628E-2</v>
       </c>
       <c r="J315">
         <v>0.76541261436180075</v>
@@ -12304,9 +12324,9 @@
         <v>0.98721070100571484</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>0.00061458838751415174</v>
+        <v>6.1458838751415174E-4</v>
       </c>
       <c r="B316">
         <v>0.69192367872144445</v>
@@ -12318,7 +12338,7 @@
         <v>0.99969270580624292</v>
       </c>
       <c r="E316">
-        <v>0.0022084013350388895</v>
+        <v>2.2084013350388895E-3</v>
       </c>
       <c r="F316">
         <v>0.77207872938984601</v>
@@ -12330,7 +12350,7 @@
         <v>0.99889579933248052</v>
       </c>
       <c r="I316">
-        <v>0.023380824254186701</v>
+        <v>2.3380824254186701E-2</v>
       </c>
       <c r="J316">
         <v>0.79409642656979429</v>
@@ -12342,9 +12362,9 @@
         <v>0.98830958787290668</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>0.0016559865201408554</v>
+        <v>1.6559865201408554E-3</v>
       </c>
       <c r="B317">
         <v>0.67872098397811575</v>
@@ -12356,7 +12376,7 @@
         <v>0.99917200673992945</v>
       </c>
       <c r="E317">
-        <v>0.0068655783549030416</v>
+        <v>6.8655783549030416E-3</v>
       </c>
       <c r="F317">
         <v>0.7516439067612205</v>
@@ -12368,7 +12388,7 @@
         <v>0.99656721082254851</v>
       </c>
       <c r="I317">
-        <v>0.043712889309866013</v>
+        <v>4.3712889309866013E-2</v>
       </c>
       <c r="J317">
         <v>0.82084218229655426</v>
@@ -12380,9 +12400,9 @@
         <v>0.97814355534506703</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>0.00041185576527061763</v>
+        <v>4.1185576527061763E-4</v>
       </c>
       <c r="B318">
         <v>0.73640180002862943</v>
@@ -12394,7 +12414,7 @@
         <v>0.99979407211736482</v>
       </c>
       <c r="E318">
-        <v>0.0023518384389246308</v>
+        <v>2.3518384389246308E-3</v>
       </c>
       <c r="F318">
         <v>0.80559543771941899</v>
@@ -12406,7 +12426,7 @@
         <v>0.99882786795998857</v>
       </c>
       <c r="I318">
-        <v>0.038075355403121583</v>
+        <v>3.8075355403121583E-2</v>
       </c>
       <c r="J318">
         <v>0.78414938428542857</v>
@@ -12418,9 +12438,9 @@
         <v>0.98099261973404528</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>0.00018427235454001014</v>
+        <v>1.8427235454001014E-4</v>
       </c>
       <c r="B319">
         <v>0.3876629519959699</v>
@@ -12432,7 +12452,7 @@
         <v>0.99990786382273011</v>
       </c>
       <c r="E319">
-        <v>0.0023341164908401283</v>
+        <v>2.3341164908401283E-3</v>
       </c>
       <c r="F319">
         <v>0.69533965792898045</v>
@@ -12444,7 +12464,7 @@
         <v>0.99883294175458004</v>
       </c>
       <c r="I319">
-        <v>0.031719414628153746</v>
+        <v>3.1719414628153746E-2</v>
       </c>
       <c r="J319">
         <v>0.77157964467483198</v>
@@ -12456,9 +12476,9 @@
         <v>0.9841566724507711</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>0.0036392346504484276</v>
+        <v>3.6392346504484276E-3</v>
       </c>
       <c r="B320">
         <v>0.59086416905499051</v>
@@ -12470,7 +12490,7 @@
         <v>0.99922959252908317</v>
       </c>
       <c r="E320">
-        <v>0.030300637791292981</v>
+        <v>3.0300637791292981E-2</v>
       </c>
       <c r="F320">
         <v>0.82457412874432212</v>
@@ -12494,9 +12514,9 @@
         <v>0.92255030162470231</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>0.051839489689956983</v>
+        <v>5.1839489689956983E-2</v>
       </c>
       <c r="B321">
         <v>0.89610036728881037</v>
@@ -12508,7 +12528,7 @@
         <v>0.9740802551550215</v>
       </c>
       <c r="E321">
-        <v>0.040713543984572019</v>
+        <v>4.0713543984572019E-2</v>
       </c>
       <c r="F321">
         <v>0.8156783986495203</v>
@@ -12532,9 +12552,9 @@
         <v>0.92548212431389998</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>0.051480618147284815</v>
+        <v>5.1480618147284815E-2</v>
       </c>
       <c r="B322">
         <v>0.85537104775623962</v>
@@ -12546,7 +12566,7 @@
         <v>0.97425969092635756</v>
       </c>
       <c r="E322">
-        <v>0.066209099542432884</v>
+        <v>6.6209099542432884E-2</v>
       </c>
       <c r="F322">
         <v>0.80239373275774672</v>
@@ -12570,9 +12590,9 @@
         <v>0.88410026187803958</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>0.03396075658679451</v>
+        <v>3.396075658679451E-2</v>
       </c>
       <c r="B323">
         <v>0.84500673811258209</v>
@@ -12584,7 +12604,7 @@
         <v>0.98301962170660273</v>
       </c>
       <c r="E323">
-        <v>0.05328067921513175</v>
+        <v>5.328067921513175E-2</v>
       </c>
       <c r="F323">
         <v>0.85146301810271841</v>
@@ -12608,9 +12628,9 @@
         <v>0.93729503838404749</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>0.01984666254859925</v>
+        <v>1.984666254859925E-2</v>
       </c>
       <c r="B324">
         <v>0.8774094120900382</v>
@@ -12622,7 +12642,7 @@
         <v>0.99007666872570033</v>
       </c>
       <c r="E324">
-        <v>0.026859489117401256</v>
+        <v>2.6859489117401256E-2</v>
       </c>
       <c r="F324">
         <v>0.82974434058469149</v>
@@ -12646,9 +12666,9 @@
         <v>0.94204110800237395</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>0.051025043680838669</v>
+        <v>5.1025043680838669E-2</v>
       </c>
       <c r="B325">
         <v>0.89061021678292995</v>
@@ -12660,7 +12680,7 @@
         <v>0.9744874781595807</v>
       </c>
       <c r="E325">
-        <v>0.038660454280722185</v>
+        <v>3.8660454280722185E-2</v>
       </c>
       <c r="F325">
         <v>0.86000258434947108</v>
@@ -12684,9 +12704,9 @@
         <v>0.94262958648806061</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>0.0086136049991471682</v>
+        <v>8.6136049991471682E-3</v>
       </c>
       <c r="B326">
         <v>0.74922745186770667</v>
@@ -12698,7 +12718,7 @@
         <v>0.99569319750042629</v>
       </c>
       <c r="E326">
-        <v>0.040505651951435087</v>
+        <v>4.0505651951435087E-2</v>
       </c>
       <c r="F326">
         <v>0.82430791355486144</v>
@@ -12722,9 +12742,9 @@
         <v>0.93569128508887545</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>0.026869955279232111</v>
+        <v>2.6869955279232111E-2</v>
       </c>
       <c r="B327">
         <v>0.84882613628002856</v>
@@ -12736,7 +12756,7 @@
         <v>0.98656502236038379</v>
       </c>
       <c r="E327">
-        <v>0.064756489965095962</v>
+        <v>6.4756489965095962E-2</v>
       </c>
       <c r="F327">
         <v>0.80505733809491675</v>
@@ -12760,9 +12780,9 @@
         <v>0.8991896633216987</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>0.030668684645019262</v>
+        <v>3.0668684645019262E-2</v>
       </c>
       <c r="B328">
         <v>0.77325948199258798</v>
@@ -12774,7 +12794,7 @@
         <v>0.9866159878921299</v>
       </c>
       <c r="E328">
-        <v>0.080434782608695646</v>
+        <v>8.0434782608695646E-2</v>
       </c>
       <c r="F328">
         <v>0.8262451284124892</v>
@@ -12798,9 +12818,9 @@
         <v>0.90380365987892131</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>0.028367873107991527</v>
+        <v>2.8367873107991527E-2</v>
       </c>
       <c r="B329">
         <v>0.75248118666107144</v>
@@ -12812,7 +12832,7 @@
         <v>0.9956011415771312</v>
       </c>
       <c r="E329">
-        <v>0.066614873343267197</v>
+        <v>6.6614873343267197E-2</v>
       </c>
       <c r="F329">
         <v>0.86515369909027484</v>
@@ -12836,9 +12856,9 @@
         <v>0.93802099671921157</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>0.042846754191177422</v>
+        <v>4.2846754191177422E-2</v>
       </c>
       <c r="B330">
         <v>0.90054788045059253</v>
@@ -12850,7 +12870,7 @@
         <v>0.97857662290441128</v>
       </c>
       <c r="E330">
-        <v>0.043554482060072466</v>
+        <v>4.3554482060072466E-2</v>
       </c>
       <c r="F330">
         <v>0.90140722139653184</v>
@@ -12862,7 +12882,7 @@
         <v>0.9782227589699638</v>
       </c>
       <c r="I330">
-        <v>0.050677211162621583</v>
+        <v>5.0677211162621583E-2</v>
       </c>
       <c r="J330">
         <v>0.73051521597191416</v>
@@ -12874,9 +12894,9 @@
         <v>0.97466139441868915</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>0.047668705969595847</v>
+        <v>4.7668705969595847E-2</v>
       </c>
       <c r="B331">
         <v>0.90043213454292914</v>
@@ -12888,7 +12908,7 @@
         <v>0.97707811920652576</v>
       </c>
       <c r="E331">
-        <v>0.049615313311086394</v>
+        <v>4.9615313311086394E-2</v>
       </c>
       <c r="F331">
         <v>0.87110895536106758</v>
@@ -12912,9 +12932,9 @@
         <v>0.94455130185803149</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>0.058766930649100733</v>
+        <v>5.8766930649100733E-2</v>
       </c>
       <c r="B332">
         <v>0.88245888865840771</v>
@@ -12926,7 +12946,7 @@
         <v>0.97061653467544962</v>
       </c>
       <c r="E332">
-        <v>0.059152859574738051</v>
+        <v>5.9152859574738051E-2</v>
       </c>
       <c r="F332">
         <v>0.85439743294460535</v>
@@ -12950,9 +12970,9 @@
         <v>0.94046517652283323</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>0.03151772919906095</v>
+        <v>3.151772919906095E-2</v>
       </c>
       <c r="B333">
         <v>0.9108471594151758</v>
@@ -12964,7 +12984,7 @@
         <v>0.98442120948809408</v>
       </c>
       <c r="E333">
-        <v>0.036334949236257214</v>
+        <v>3.6334949236257214E-2</v>
       </c>
       <c r="F333">
         <v>0.89039323885570087</v>
@@ -12988,9 +13008,9 @@
         <v>0.92342817870463523</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>0.060434903684331603</v>
+        <v>6.0434903684331603E-2</v>
       </c>
       <c r="B334">
         <v>0.87903006117171678</v>
@@ -13002,7 +13022,7 @@
         <v>0.96978254815783416</v>
       </c>
       <c r="E334">
-        <v>0.055156005956921279</v>
+        <v>5.5156005956921279E-2</v>
       </c>
       <c r="F334">
         <v>0.85611129833796107</v>
@@ -13026,9 +13046,9 @@
         <v>0.90499114129930303</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>0.017295965876663363</v>
+        <v>1.7295965876663363E-2</v>
       </c>
       <c r="B335">
         <v>0.90869973058116915</v>
@@ -13040,7 +13060,7 @@
         <v>0.99135201706166831</v>
       </c>
       <c r="E335">
-        <v>0.021675527920458983</v>
+        <v>2.1675527920458983E-2</v>
       </c>
       <c r="F335">
         <v>0.88050917605294221</v>
@@ -13052,7 +13072,7 @@
         <v>0.9891622360397706</v>
       </c>
       <c r="I335">
-        <v>0.064269622420474001</v>
+        <v>6.4269622420474001E-2</v>
       </c>
       <c r="J335">
         <v>0.76178618461957304</v>
@@ -13064,9 +13084,9 @@
         <v>0.96789722948144141</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>0.033191530271348572</v>
+        <v>3.3191530271348572E-2</v>
       </c>
       <c r="B336">
         <v>0.88353941182259055</v>
@@ -13078,7 +13098,7 @@
         <v>0.98468181435816082</v>
       </c>
       <c r="E336">
-        <v>0.047588146225394763</v>
+        <v>4.7588146225394763E-2</v>
       </c>
       <c r="F336">
         <v>0.73476903313069564</v>
@@ -13102,9 +13122,9 @@
         <v>0.88427778578925009</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>0.045628621819098006</v>
+        <v>4.5628621819098006E-2</v>
       </c>
       <c r="B337">
         <v>0.86646158081597324</v>
@@ -13116,7 +13136,7 @@
         <v>0.977185689090451</v>
       </c>
       <c r="E337">
-        <v>0.027519526329050137</v>
+        <v>2.7519526329050137E-2</v>
       </c>
       <c r="F337">
         <v>0.78724914546366698</v>
@@ -13140,9 +13160,9 @@
         <v>0.91555387587133619</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>0.047011874635000978</v>
+        <v>4.7011874635000978E-2</v>
       </c>
       <c r="B338">
         <v>0.87883874049076915</v>
@@ -13154,7 +13174,7 @@
         <v>0.97738831029783912</v>
       </c>
       <c r="E338">
-        <v>0.067700560205913543</v>
+        <v>6.7700560205913543E-2</v>
       </c>
       <c r="F338">
         <v>0.77509810062800111</v>
@@ -13178,9 +13198,9 @@
         <v>0.85270594957425794</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>0.040240069193932873</v>
+        <v>4.0240069193932873E-2</v>
       </c>
       <c r="B339">
         <v>0.86693347191695935</v>
@@ -13192,7 +13212,7 @@
         <v>0.97987996540303368</v>
       </c>
       <c r="E339">
-        <v>0.082120329936923822</v>
+        <v>8.2120329936923822E-2</v>
       </c>
       <c r="F339">
         <v>0.73335863395528078</v>
@@ -13216,9 +13236,9 @@
         <v>0.83580452010772877</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>0.053468994682410079</v>
+        <v>5.3468994682410079E-2</v>
       </c>
       <c r="B340">
         <v>0.86119697968392983</v>
@@ -13230,7 +13250,7 @@
         <v>0.97326550265879508</v>
       </c>
       <c r="E340">
-        <v>0.033531521723959859</v>
+        <v>3.3531521723959859E-2</v>
       </c>
       <c r="F340">
         <v>0.86554001468721542</v>
@@ -13254,9 +13274,9 @@
         <v>0.94414902278236024</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>0.088180377818403405</v>
+        <v>8.8180377818403405E-2</v>
       </c>
       <c r="B341">
         <v>0.80861704118944377</v>
@@ -13268,7 +13288,7 @@
         <v>0.9559098110907982</v>
       </c>
       <c r="E341">
-        <v>0.063790371724558217</v>
+        <v>6.3790371724558217E-2</v>
       </c>
       <c r="F341">
         <v>0.68886605478676444</v>
@@ -13292,9 +13312,9 @@
         <v>0.89169449522648792</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>0.090053113208027585</v>
+        <v>9.0053113208027585E-2</v>
       </c>
       <c r="B342">
         <v>0.7879570299102322</v>
@@ -13306,7 +13326,7 @@
         <v>0.95497344339598622</v>
       </c>
       <c r="E342">
-        <v>0.067972684635871514</v>
+        <v>6.7972684635871514E-2</v>
       </c>
       <c r="F342">
         <v>0.67747482308292639</v>
@@ -13330,9 +13350,9 @@
         <v>0.88808585362210346</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>0.076921894612803243</v>
+        <v>7.6921894612803243E-2</v>
       </c>
       <c r="B343">
         <v>0.80270511842024317</v>
@@ -13344,7 +13364,7 @@
         <v>0.96153905269359852</v>
       </c>
       <c r="E343">
-        <v>0.051008018034172715</v>
+        <v>5.1008018034172715E-2</v>
       </c>
       <c r="F343">
         <v>0.6741781297281666</v>
@@ -13368,9 +13388,9 @@
         <v>0.90711803331881713</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>0.08030491716668553</v>
+        <v>8.030491716668553E-2</v>
       </c>
       <c r="B344">
         <v>0.81604701065345386</v>
@@ -13382,7 +13402,7 @@
         <v>0.95984754141665729</v>
       </c>
       <c r="E344">
-        <v>0.0528052271514289</v>
+        <v>5.28052271514289E-2</v>
       </c>
       <c r="F344">
         <v>0.71904604002995165</v>
@@ -13406,9 +13426,9 @@
         <v>0.91145892297822551</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>0.042767596202197625</v>
+        <v>4.2767596202197625E-2</v>
       </c>
       <c r="B345">
         <v>0.75429546301416817</v>
@@ -13420,7 +13440,7 @@
         <v>0.97861620189890119</v>
       </c>
       <c r="E345">
-        <v>0.021050220808252803</v>
+        <v>2.1050220808252803E-2</v>
       </c>
       <c r="F345">
         <v>0.73336755692862399</v>
@@ -13444,9 +13464,9 @@
         <v>0.9351756425511859</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>0.0032299820738036613</v>
+        <v>3.2299820738036613E-3</v>
       </c>
       <c r="B346">
         <v>0.45919327463193227</v>
@@ -13458,7 +13478,7 @@
         <v>0.99838500896309823</v>
       </c>
       <c r="E346">
-        <v>0.035333798842759896</v>
+        <v>3.5333798842759896E-2</v>
       </c>
       <c r="F346">
         <v>0.75561333277948983</v>
@@ -13482,9 +13502,9 @@
         <v>0.94641469267530431</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>0.023035601290675813</v>
+        <v>2.3035601290675813E-2</v>
       </c>
       <c r="B347">
         <v>0.72719684885960734</v>
@@ -13496,7 +13516,7 @@
         <v>0.98848219935466219</v>
       </c>
       <c r="E347">
-        <v>0.05850674732642519</v>
+        <v>5.850674732642519E-2</v>
       </c>
       <c r="F347">
         <v>0.74666639474799956</v>
@@ -13520,9 +13540,9 @@
         <v>0.91644414925047168</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>0.030411501937697837</v>
+        <v>3.0411501937697837E-2</v>
       </c>
       <c r="B348">
         <v>0.73081073797587737</v>
@@ -13534,7 +13554,7 @@
         <v>0.98479424903115098</v>
       </c>
       <c r="E348">
-        <v>0.039447048233250633</v>
+        <v>3.9447048233250633E-2</v>
       </c>
       <c r="F348">
         <v>0.76419562175463107</v>
@@ -13558,9 +13578,9 @@
         <v>0.92985759223962927</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>0.017144621993549269</v>
+        <v>1.7144621993549269E-2</v>
       </c>
       <c r="B349">
         <v>0.67805056666243912</v>
@@ -13572,7 +13592,7 @@
         <v>0.99175935057505571</v>
       </c>
       <c r="E349">
-        <v>0.036173924030196994</v>
+        <v>3.6173924030196994E-2</v>
       </c>
       <c r="F349">
         <v>0.78856237372447902</v>
@@ -13596,9 +13616,9 @@
         <v>0.94542675543731947</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>0.0018134760638766133</v>
+        <v>1.8134760638766133E-3</v>
       </c>
       <c r="B350">
         <v>0.42152248461104097</v>
@@ -13634,9 +13654,9 @@
         <v>0.86163441731077339</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>0.00072661861989798933</v>
+        <v>7.2661861989798933E-4</v>
       </c>
       <c r="B351">
         <v>0.36664757312202323</v>
@@ -13648,7 +13668,7 @@
         <v>0.99963669069005101</v>
       </c>
       <c r="E351">
-        <v>0.079556454953195799</v>
+        <v>7.9556454953195799E-2</v>
       </c>
       <c r="F351">
         <v>0.85712192234465578</v>
@@ -13672,9 +13692,9 @@
         <v>0.94220226190617085</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>0.001436657533816406</v>
+        <v>1.436657533816406E-3</v>
       </c>
       <c r="B352">
         <v>0.49974579165526656</v>
@@ -13686,7 +13706,7 @@
         <v>0.99928167123309186</v>
       </c>
       <c r="E352">
-        <v>0.069255267090075054</v>
+        <v>6.9255267090075054E-2</v>
       </c>
       <c r="F352">
         <v>0.87336359962524712</v>
@@ -13698,7 +13718,7 @@
         <v>0.96537236645496272</v>
       </c>
       <c r="I352">
-        <v>0.080191135639835986</v>
+        <v>8.0191135639835986E-2</v>
       </c>
       <c r="J352">
         <v>0.85734931154684491</v>
@@ -13710,9 +13730,9 @@
         <v>0.95990443218008203</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>0.0020973782771535584</v>
+        <v>2.0973782771535584E-3</v>
       </c>
       <c r="B353">
         <v>0.47830955294366007</v>
@@ -13748,9 +13768,9 @@
         <v>0.87718784059608024</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>0.00090080303941543179</v>
+        <v>9.0080303941543179E-4</v>
       </c>
       <c r="B354">
         <v>0.47174504767894226</v>
@@ -13786,9 +13806,9 @@
         <v>0.92116383752692466</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>0.00035952314157857893</v>
+        <v>3.5952314157857893E-4</v>
       </c>
       <c r="B355">
         <v>0.30523584102546003</v>
@@ -13800,7 +13820,7 @@
         <v>0.99982023842921075</v>
       </c>
       <c r="E355">
-        <v>0.089831759511702178</v>
+        <v>8.9831759511702178E-2</v>
       </c>
       <c r="F355">
         <v>0.83245512124785903</v>
@@ -13824,9 +13844,9 @@
         <v>0.93005549911526442</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>0.0035849112299886189</v>
+        <v>3.5849112299886189E-3</v>
       </c>
       <c r="B356">
         <v>0.45415447593518748</v>
@@ -13838,7 +13858,7 @@
         <v>0.99820754438500559</v>
       </c>
       <c r="E356">
-        <v>0.029833808369603365</v>
+        <v>2.9833808369603365E-2</v>
       </c>
       <c r="F356">
         <v>0.73759675716885142</v>
@@ -13862,9 +13882,9 @@
         <v>0.93457837661137877</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>0.015292191880836253</v>
+        <v>1.5292191880836253E-2</v>
       </c>
       <c r="B357">
         <v>0.60940795148787241</v>
@@ -13876,7 +13896,7 @@
         <v>0.9923539040595819</v>
       </c>
       <c r="E357">
-        <v>0.027487273175821867</v>
+        <v>2.7487273175821867E-2</v>
       </c>
       <c r="F357">
         <v>0.731259611544546</v>
@@ -13900,9 +13920,9 @@
         <v>0.93663480654449349</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>0.015751565339076287</v>
+        <v>1.5751565339076287E-2</v>
       </c>
       <c r="B358">
         <v>0.61440626806106036</v>
@@ -13914,7 +13934,7 @@
         <v>0.99212421733046186</v>
       </c>
       <c r="E358">
-        <v>0.035324147517429891</v>
+        <v>3.5324147517429891E-2</v>
       </c>
       <c r="F358">
         <v>0.73530034994207549</v>
@@ -13938,9 +13958,9 @@
         <v>0.93203150728621575</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>0.0022132462789796934</v>
+        <v>2.2132462789796934E-3</v>
       </c>
       <c r="B359">
         <v>0.40135178057115783</v>
@@ -13952,7 +13972,7 @@
         <v>0.99889337686051016</v>
       </c>
       <c r="E359">
-        <v>0.036648754560751978</v>
+        <v>3.6648754560751978E-2</v>
       </c>
       <c r="F359">
         <v>0.74863269786177167</v>
@@ -13976,9 +13996,9 @@
         <v>0.9289651012288942</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>0.001467924002415571</v>
+        <v>1.467924002415571E-3</v>
       </c>
       <c r="B360">
         <v>0.31035930348530988</v>
@@ -13990,7 +14010,7 @@
         <v>0.99926603799879221</v>
       </c>
       <c r="E360">
-        <v>0.036053947755531814</v>
+        <v>3.6053947755531814E-2</v>
       </c>
       <c r="F360">
         <v>0.75586724007949913</v>
@@ -14014,9 +14034,9 @@
         <v>0.92869729487000829</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>0.031264157643188621</v>
+        <v>3.1264157643188621E-2</v>
       </c>
       <c r="B361">
         <v>0.89488907160377751</v>
@@ -14028,7 +14048,7 @@
         <v>0.98436792117840577</v>
       </c>
       <c r="E361">
-        <v>0.06999742866588575</v>
+        <v>6.999742866588575E-2</v>
       </c>
       <c r="F361">
         <v>0.7428092673554969</v>
@@ -14052,9 +14072,9 @@
         <v>0.92553810948441351</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>0.0041715294610527569</v>
+        <v>4.1715294610527569E-3</v>
       </c>
       <c r="B362">
         <v>0.91483764466280626</v>
@@ -14066,7 +14086,7 @@
         <v>0.99791423526947365</v>
       </c>
       <c r="E362">
-        <v>0.019235718346949159</v>
+        <v>1.9235718346949159E-2</v>
       </c>
       <c r="F362">
         <v>0.66874885088964819</v>
@@ -14090,9 +14110,9 @@
         <v>0.93739613569939473</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>0.0059371165733358919</v>
+        <v>5.9371165733358919E-3</v>
       </c>
       <c r="B363">
         <v>0.9065026053016636</v>
@@ -14104,7 +14124,7 @@
         <v>0.99703144171333213</v>
       </c>
       <c r="E363">
-        <v>0.056568334990608767</v>
+        <v>5.6568334990608767E-2</v>
       </c>
       <c r="F363">
         <v>0.60695315041007958</v>
@@ -14128,9 +14148,9 @@
         <v>0.88453926773623925</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>0.0074814828634862593</v>
+        <v>7.4814828634862593E-3</v>
       </c>
       <c r="B364">
         <v>0.92987524339911554</v>
@@ -14142,7 +14162,7 @@
         <v>0.99625925856825681</v>
       </c>
       <c r="E364">
-        <v>0.012811184288264086</v>
+        <v>1.2811184288264086E-2</v>
       </c>
       <c r="F364">
         <v>0.65216406792359516</v>
@@ -14154,7 +14174,7 @@
         <v>0.99359440785586817</v>
       </c>
       <c r="I364">
-        <v>0.098055311977213511</v>
+        <v>9.8055311977213511E-2</v>
       </c>
       <c r="J364">
         <v>0.75781760669209641</v>
@@ -14166,9 +14186,9 @@
         <v>0.95104697226938317</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>0.0073060240963855414</v>
+        <v>7.3060240963855414E-3</v>
       </c>
       <c r="B365">
         <v>0.89819393777213041</v>
@@ -14204,9 +14224,9 @@
         <v>0.94337028112449783</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>0.01413340091590096</v>
+        <v>1.413340091590096E-2</v>
       </c>
       <c r="B366">
         <v>0.86228048176097516</v>
@@ -14218,7 +14238,7 @@
         <v>0.99293329954204945</v>
       </c>
       <c r="E366">
-        <v>0.07900677200902935</v>
+        <v>7.900677200902935E-2</v>
       </c>
       <c r="F366">
         <v>0.80677543541179664</v>
@@ -14242,9 +14262,9 @@
         <v>0.93085262088733545</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>0.0043932987888228373</v>
+        <v>4.3932987888228373E-3</v>
       </c>
       <c r="B367">
         <v>0.91150592327594737</v>
@@ -14256,7 +14276,7 @@
         <v>0.99780335060558856</v>
       </c>
       <c r="E367">
-        <v>0.014921956957116062</v>
+        <v>1.4921956957116062E-2</v>
       </c>
       <c r="F367">
         <v>0.72120525522256373</v>
@@ -14268,7 +14288,7 @@
         <v>0.99253902152144169</v>
       </c>
       <c r="I367">
-        <v>0.091655275455383545</v>
+        <v>9.1655275455383545E-2</v>
       </c>
       <c r="J367">
         <v>0.7327494855019776</v>
@@ -14280,9 +14300,9 @@
         <v>0.95417236227230828</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>0.010779942400078939</v>
+        <v>1.0779942400078939E-2</v>
       </c>
       <c r="B368">
         <v>0.78006562256446754</v>
@@ -14294,7 +14314,7 @@
         <v>0.99461002879996052</v>
       </c>
       <c r="E368">
-        <v>0.045407732203536173</v>
+        <v>4.5407732203536173E-2</v>
       </c>
       <c r="F368">
         <v>0.73927040462943416</v>
@@ -14318,9 +14338,9 @@
         <v>0.93715297692097377</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>0.0060778429883866199</v>
+        <v>6.0778429883866199E-3</v>
       </c>
       <c r="B369">
         <v>0.95614628600185747</v>
@@ -14332,7 +14352,7 @@
         <v>0.99696107850580673</v>
       </c>
       <c r="E369">
-        <v>0.010404238823477425</v>
+        <v>1.0404238823477425E-2</v>
       </c>
       <c r="F369">
         <v>0.75858791513980284</v>
@@ -14344,7 +14364,7 @@
         <v>0.99479788058826146</v>
       </c>
       <c r="I369">
-        <v>0.083635618650501925</v>
+        <v>8.3635618650501925E-2</v>
       </c>
       <c r="J369">
         <v>0.82719359965448547</v>
@@ -14356,9 +14376,9 @@
         <v>0.95818219067474897</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>0.0081002559529080378</v>
+        <v>8.1002559529080378E-3</v>
       </c>
       <c r="B370">
         <v>0.94744801253979472</v>
@@ -14370,7 +14390,7 @@
         <v>0.9959498720235459</v>
       </c>
       <c r="E370">
-        <v>0.016887831905984748</v>
+        <v>1.6887831905984748E-2</v>
       </c>
       <c r="F370">
         <v>0.70491435080904585</v>
@@ -14394,9 +14414,9 @@
         <v>0.94433551336057298</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>0.012690964120769133</v>
+        <v>1.2690964120769133E-2</v>
       </c>
       <c r="B371">
         <v>0.91155279414825396</v>
@@ -14408,7 +14428,7 @@
         <v>0.99365451793961546</v>
       </c>
       <c r="E371">
-        <v>0.069045822666672474</v>
+        <v>6.9045822666672474E-2</v>
       </c>
       <c r="F371">
         <v>0.85790235719137642</v>
@@ -14420,7 +14440,7 @@
         <v>0.96547708866666371</v>
       </c>
       <c r="I371">
-        <v>0.079037231189243648</v>
+        <v>7.9037231189243648E-2</v>
       </c>
       <c r="J371">
         <v>0.74611280349620179</v>
@@ -14432,9 +14452,9 @@
         <v>0.96048138440537822</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>0.015419261731537966</v>
+        <v>1.5419261731537966E-2</v>
       </c>
       <c r="B372">
         <v>0.85386808299492267</v>
@@ -14446,7 +14466,7 @@
         <v>0.99229036913423097</v>
       </c>
       <c r="E372">
-        <v>0.083384063924802354</v>
+        <v>8.3384063924802354E-2</v>
       </c>
       <c r="F372">
         <v>0.82753181494868355</v>
@@ -14470,9 +14490,9 @@
         <v>0.94061611771200082</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>0.032628846866889133</v>
+        <v>3.2628846866889133E-2</v>
       </c>
       <c r="B373">
         <v>0.81023060134931202</v>
@@ -14484,7 +14504,7 @@
         <v>0.98368557656655542</v>
       </c>
       <c r="E373">
-        <v>0.078548814922563534</v>
+        <v>7.8548814922563534E-2</v>
       </c>
       <c r="F373">
         <v>0.75038893203456825</v>
@@ -14508,9 +14528,9 @@
         <v>0.89667436753087482</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>0.059613874719869384</v>
+        <v>5.9613874719869384E-2</v>
       </c>
       <c r="B374">
         <v>0.81755860008673753</v>
@@ -14546,9 +14566,9 @@
         <v>0.87826992372127843</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>0.018613806854980597</v>
+        <v>1.8613806854980597E-2</v>
       </c>
       <c r="B375">
         <v>0.91999918669307967</v>
@@ -14560,7 +14580,7 @@
         <v>0.9906930965725097</v>
       </c>
       <c r="E375">
-        <v>0.05910351146491509</v>
+        <v>5.910351146491509E-2</v>
       </c>
       <c r="F375">
         <v>0.85795008880344459</v>
@@ -14584,9 +14604,9 @@
         <v>0.93802622251913659</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>0.039171363047990362</v>
+        <v>3.9171363047990362E-2</v>
       </c>
       <c r="B376">
         <v>0.85601209399077671</v>
@@ -14598,7 +14618,7 @@
         <v>0.98049597588816484</v>
       </c>
       <c r="E376">
-        <v>0.090846247301849009</v>
+        <v>9.0846247301849009E-2</v>
       </c>
       <c r="F376">
         <v>0.83491356913459358</v>
@@ -14622,9 +14642,9 @@
         <v>0.93191341606798972</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>0.030495552731893267</v>
+        <v>3.0495552731893267E-2</v>
       </c>
       <c r="B377">
         <v>0.85471448197127953</v>
@@ -14660,9 +14680,9 @@
         <v>0.91489171295981309</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>0.03447655378414366</v>
+        <v>3.447655378414366E-2</v>
       </c>
       <c r="B378">
         <v>0.87626072505226993</v>
@@ -14674,7 +14694,7 @@
         <v>0.98276172310792831</v>
       </c>
       <c r="E378">
-        <v>0.075391180654338558</v>
+        <v>7.5391180654338558E-2</v>
       </c>
       <c r="F378">
         <v>0.87760523760505094</v>
@@ -14686,7 +14706,7 @@
         <v>0.96230440967283071</v>
       </c>
       <c r="I378">
-        <v>0.079313878318713962</v>
+        <v>7.9313878318713962E-2</v>
       </c>
       <c r="J378">
         <v>0.79179309875093951</v>
@@ -14698,9 +14718,9 @@
         <v>0.96034306084064303</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>0.030172102472549346</v>
+        <v>3.0172102472549346E-2</v>
       </c>
       <c r="B379">
         <v>0.87662621443539235</v>
@@ -14712,7 +14732,7 @@
         <v>0.98491394876372551</v>
       </c>
       <c r="E379">
-        <v>0.08232880035705753</v>
+        <v>8.232880035705753E-2</v>
       </c>
       <c r="F379">
         <v>0.8626450653818426</v>
@@ -14724,7 +14744,7 @@
         <v>0.95883559982147148</v>
       </c>
       <c r="I379">
-        <v>0.092886813872648244</v>
+        <v>9.2886813872648244E-2</v>
       </c>
       <c r="J379">
         <v>0.78530300644657969</v>
@@ -14736,9 +14756,9 @@
         <v>0.95356893945146226</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>0.0075623855664588863</v>
+        <v>7.5623855664588863E-3</v>
       </c>
       <c r="B380">
         <v>0.94399654009827061</v>
@@ -14750,7 +14770,7 @@
         <v>0.99621880721677059</v>
       </c>
       <c r="E380">
-        <v>0.011763253718447199</v>
+        <v>1.1763253718447199E-2</v>
       </c>
       <c r="F380">
         <v>0.75358215091603897</v>
@@ -14762,7 +14782,7 @@
         <v>0.99411837314077656</v>
       </c>
       <c r="I380">
-        <v>0.064374909996091259</v>
+        <v>6.4374909996091259E-2</v>
       </c>
       <c r="J380">
         <v>0.82296139770710863</v>
@@ -14774,9 +14794,9 @@
         <v>0.96781254500195435</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>0.031264157643188621</v>
+        <v>3.1264157643188621E-2</v>
       </c>
       <c r="B381">
         <v>0.89488907160377751</v>
@@ -14788,7 +14808,7 @@
         <v>0.98436792117840577</v>
       </c>
       <c r="E381">
-        <v>0.06999742866588575</v>
+        <v>6.999742866588575E-2</v>
       </c>
       <c r="F381">
         <v>0.7428092673554969</v>
@@ -14812,9 +14832,9 @@
         <v>0.92553810948441351</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>0.0041715294610527569</v>
+        <v>4.1715294610527569E-3</v>
       </c>
       <c r="B382">
         <v>0.91483764466280626</v>
@@ -14826,7 +14846,7 @@
         <v>0.99791423526947365</v>
       </c>
       <c r="E382">
-        <v>0.019235718346949159</v>
+        <v>1.9235718346949159E-2</v>
       </c>
       <c r="F382">
         <v>0.66874885088964819</v>
@@ -14850,9 +14870,9 @@
         <v>0.93739613569939473</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>0.0059371165733358919</v>
+        <v>5.9371165733358919E-3</v>
       </c>
       <c r="B383">
         <v>0.9065026053016636</v>
@@ -14864,7 +14884,7 @@
         <v>0.99703144171333213</v>
       </c>
       <c r="E383">
-        <v>0.056568334990608767</v>
+        <v>5.6568334990608767E-2</v>
       </c>
       <c r="F383">
         <v>0.60695315041007958</v>
@@ -14888,9 +14908,9 @@
         <v>0.88453926773623925</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>0.0074814828634862593</v>
+        <v>7.4814828634862593E-3</v>
       </c>
       <c r="B384">
         <v>0.92987524339911554</v>
@@ -14902,7 +14922,7 @@
         <v>0.99625925856825681</v>
       </c>
       <c r="E384">
-        <v>0.012811184288264086</v>
+        <v>1.2811184288264086E-2</v>
       </c>
       <c r="F384">
         <v>0.65216406792359516</v>
@@ -14914,7 +14934,7 @@
         <v>0.99359440785586817</v>
       </c>
       <c r="I384">
-        <v>0.098055311977213511</v>
+        <v>9.8055311977213511E-2</v>
       </c>
       <c r="J384">
         <v>0.75781760669209641</v>
@@ -14926,9 +14946,9 @@
         <v>0.95104697226938317</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>0.0073060240963855414</v>
+        <v>7.3060240963855414E-3</v>
       </c>
       <c r="B385">
         <v>0.89819393777213041</v>
@@ -14964,9 +14984,9 @@
         <v>0.94337028112449783</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>0.01413340091590096</v>
+        <v>1.413340091590096E-2</v>
       </c>
       <c r="B386">
         <v>0.86228048176097516</v>
@@ -14978,7 +14998,7 @@
         <v>0.99293329954204945</v>
       </c>
       <c r="E386">
-        <v>0.07900677200902935</v>
+        <v>7.900677200902935E-2</v>
       </c>
       <c r="F386">
         <v>0.80677543541179664</v>
@@ -15002,9 +15022,9 @@
         <v>0.93085262088733545</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>0.0043932987888228373</v>
+        <v>4.3932987888228373E-3</v>
       </c>
       <c r="B387">
         <v>0.91150592327594737</v>
@@ -15016,7 +15036,7 @@
         <v>0.99780335060558856</v>
       </c>
       <c r="E387">
-        <v>0.014921956957116062</v>
+        <v>1.4921956957116062E-2</v>
       </c>
       <c r="F387">
         <v>0.72120525522256373</v>
@@ -15028,7 +15048,7 @@
         <v>0.99253902152144169</v>
       </c>
       <c r="I387">
-        <v>0.091655275455383545</v>
+        <v>9.1655275455383545E-2</v>
       </c>
       <c r="J387">
         <v>0.7327494855019776</v>
@@ -15040,9 +15060,9 @@
         <v>0.95417236227230828</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>0.010779942400078939</v>
+        <v>1.0779942400078939E-2</v>
       </c>
       <c r="B388">
         <v>0.78006562256446754</v>
@@ -15054,7 +15074,7 @@
         <v>0.99461002879996052</v>
       </c>
       <c r="E388">
-        <v>0.045407732203536173</v>
+        <v>4.5407732203536173E-2</v>
       </c>
       <c r="F388">
         <v>0.73927040462943416</v>
@@ -15078,9 +15098,9 @@
         <v>0.93715297692097377</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>0.0060778429883866199</v>
+        <v>6.0778429883866199E-3</v>
       </c>
       <c r="B389">
         <v>0.95614628600185747</v>
@@ -15092,7 +15112,7 @@
         <v>0.99696107850580673</v>
       </c>
       <c r="E389">
-        <v>0.010404238823477425</v>
+        <v>1.0404238823477425E-2</v>
       </c>
       <c r="F389">
         <v>0.75858791513980284</v>
@@ -15104,7 +15124,7 @@
         <v>0.99479788058826146</v>
       </c>
       <c r="I389">
-        <v>0.083635618650501925</v>
+        <v>8.3635618650501925E-2</v>
       </c>
       <c r="J389">
         <v>0.82719359965448547</v>
@@ -15116,9 +15136,9 @@
         <v>0.95818219067474897</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>0.0081002559529080378</v>
+        <v>8.1002559529080378E-3</v>
       </c>
       <c r="B390">
         <v>0.94744801253979472</v>
@@ -15130,7 +15150,7 @@
         <v>0.9959498720235459</v>
       </c>
       <c r="E390">
-        <v>0.016887831905984748</v>
+        <v>1.6887831905984748E-2</v>
       </c>
       <c r="F390">
         <v>0.70491435080904585</v>
@@ -15154,9 +15174,9 @@
         <v>0.94433551336057298</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>0.012690964120769133</v>
+        <v>1.2690964120769133E-2</v>
       </c>
       <c r="B391">
         <v>0.91155279414825396</v>
@@ -15168,7 +15188,7 @@
         <v>0.99365451793961546</v>
       </c>
       <c r="E391">
-        <v>0.069045822666672474</v>
+        <v>6.9045822666672474E-2</v>
       </c>
       <c r="F391">
         <v>0.85790235719137642</v>
@@ -15180,7 +15200,7 @@
         <v>0.96547708866666371</v>
       </c>
       <c r="I391">
-        <v>0.079037231189243648</v>
+        <v>7.9037231189243648E-2</v>
       </c>
       <c r="J391">
         <v>0.74611280349620179</v>
@@ -15192,9 +15212,9 @@
         <v>0.96048138440537822</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>0.015419261731537966</v>
+        <v>1.5419261731537966E-2</v>
       </c>
       <c r="B392">
         <v>0.85386808299492267</v>
@@ -15206,7 +15226,7 @@
         <v>0.99229036913423097</v>
       </c>
       <c r="E392">
-        <v>0.083384063924802354</v>
+        <v>8.3384063924802354E-2</v>
       </c>
       <c r="F392">
         <v>0.82753181494868355</v>
@@ -15230,9 +15250,9 @@
         <v>0.94061611771200082</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>0.032628846866889133</v>
+        <v>3.2628846866889133E-2</v>
       </c>
       <c r="B393">
         <v>0.81023060134931202</v>
@@ -15244,7 +15264,7 @@
         <v>0.98368557656655542</v>
       </c>
       <c r="E393">
-        <v>0.078548814922563534</v>
+        <v>7.8548814922563534E-2</v>
       </c>
       <c r="F393">
         <v>0.75038893203456825</v>
@@ -15268,9 +15288,9 @@
         <v>0.89667436753087482</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>0.059613874719869384</v>
+        <v>5.9613874719869384E-2</v>
       </c>
       <c r="B394">
         <v>0.81755860008673753</v>
@@ -15306,9 +15326,9 @@
         <v>0.87826992372127843</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>0.018613806854980597</v>
+        <v>1.8613806854980597E-2</v>
       </c>
       <c r="B395">
         <v>0.91999918669307967</v>
@@ -15320,7 +15340,7 @@
         <v>0.9906930965725097</v>
       </c>
       <c r="E395">
-        <v>0.05910351146491509</v>
+        <v>5.910351146491509E-2</v>
       </c>
       <c r="F395">
         <v>0.85795008880344459</v>
@@ -15344,9 +15364,9 @@
         <v>0.93802622251913659</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>0.039171363047990362</v>
+        <v>3.9171363047990362E-2</v>
       </c>
       <c r="B396">
         <v>0.85601209399077671</v>
@@ -15358,7 +15378,7 @@
         <v>0.98049597588816484</v>
       </c>
       <c r="E396">
-        <v>0.090846247301849009</v>
+        <v>9.0846247301849009E-2</v>
       </c>
       <c r="F396">
         <v>0.83491356913459358</v>
@@ -15382,9 +15402,9 @@
         <v>0.93191341606798972</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>0.030495552731893267</v>
+        <v>3.0495552731893267E-2</v>
       </c>
       <c r="B397">
         <v>0.85471448197127953</v>
@@ -15420,9 +15440,9 @@
         <v>0.91489171295981309</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>0.03447655378414366</v>
+        <v>3.447655378414366E-2</v>
       </c>
       <c r="B398">
         <v>0.87626072505226993</v>
@@ -15434,7 +15454,7 @@
         <v>0.98276172310792831</v>
       </c>
       <c r="E398">
-        <v>0.075391180654338558</v>
+        <v>7.5391180654338558E-2</v>
       </c>
       <c r="F398">
         <v>0.87760523760505094</v>
@@ -15446,7 +15466,7 @@
         <v>0.96230440967283071</v>
       </c>
       <c r="I398">
-        <v>0.079313878318713962</v>
+        <v>7.9313878318713962E-2</v>
       </c>
       <c r="J398">
         <v>0.79179309875093951</v>
@@ -15458,9 +15478,9 @@
         <v>0.96034306084064303</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>0.030172102472549346</v>
+        <v>3.0172102472549346E-2</v>
       </c>
       <c r="B399">
         <v>0.87662621443539235</v>
@@ -15472,7 +15492,7 @@
         <v>0.98491394876372551</v>
       </c>
       <c r="E399">
-        <v>0.08232880035705753</v>
+        <v>8.232880035705753E-2</v>
       </c>
       <c r="F399">
         <v>0.8626450653818426</v>
@@ -15484,7 +15504,7 @@
         <v>0.95883559982147148</v>
       </c>
       <c r="I399">
-        <v>0.092886813872648244</v>
+        <v>9.2886813872648244E-2</v>
       </c>
       <c r="J399">
         <v>0.78530300644657969</v>
@@ -15496,9 +15516,9 @@
         <v>0.95356893945146226</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>0.0075623855664588863</v>
+        <v>7.5623855664588863E-3</v>
       </c>
       <c r="B400">
         <v>0.94399654009827061</v>
@@ -15510,7 +15530,7 @@
         <v>0.99621880721677059</v>
       </c>
       <c r="E400">
-        <v>0.011763253718447199</v>
+        <v>1.1763253718447199E-2</v>
       </c>
       <c r="F400">
         <v>0.75358215091603897</v>
@@ -15522,7 +15542,7 @@
         <v>0.99411837314077656</v>
       </c>
       <c r="I400">
-        <v>0.064374909996091259</v>
+        <v>6.4374909996091259E-2</v>
       </c>
       <c r="J400">
         <v>0.82296139770710863</v>
